--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9221D7A-5003-7543-97B5-9DCFAE56F99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34980" windowHeight="9860" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,11 @@
     <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="13" r:id="rId13"/>
     <sheet name="Action Tagging" sheetId="14" r:id="rId14"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId15"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId15"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId16"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="616">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -163,17 +166,10 @@
     <t>Start Balance</t>
   </si>
   <si>
-    <t>End Balance</t>
-  </si>
-  <si>
     <t>Recharge History</t>
   </si>
   <si>
     <t>Bundle Name</t>
-  </si>
-  <si>
-    <t>Benefit
-Voice|Data|SMS</t>
   </si>
   <si>
     <t>Bundle Subscription History</t>
@@ -1488,9 +1484,6 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Amount (CFA)</t>
-  </si>
-  <si>
     <t>Charges (CFA)</t>
   </si>
   <si>
@@ -1639,13 +1632,275 @@
   </si>
   <si>
     <t>Next Reset Date</t>
+  </si>
+  <si>
+    <t>Prod Customer Number</t>
+  </si>
+  <si>
+    <t>Prod SIM Number</t>
+  </si>
+  <si>
+    <t>68527460</t>
+  </si>
+  <si>
+    <t>8923501000276043741</t>
+  </si>
+  <si>
+    <t>Row11</t>
+  </si>
+  <si>
+    <t>Row12</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>BenefitVoice|Data|SMS</t>
+  </si>
+  <si>
+    <t>Service Profile</t>
+  </si>
+  <si>
+    <t>Service Name</t>
+  </si>
+  <si>
+    <t>Service Details</t>
+  </si>
+  <si>
+    <t>HLR Code</t>
+  </si>
+  <si>
+    <t>HLR Code Detail</t>
+  </si>
+  <si>
+    <t>More Airtel Money History</t>
+  </si>
+  <si>
+    <t>Amount
+(CFA)</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Beneficiary</t>
+  </si>
+  <si>
+    <t>Service Charge
+(CFA)</t>
+  </si>
+  <si>
+    <t>Pre balance
+(CFA)</t>
+  </si>
+  <si>
+    <t>Post balance
+(CFA)</t>
+  </si>
+  <si>
+    <t>Quick Actions</t>
+  </si>
+  <si>
+    <t>Action Trail Tab</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Agent Id</t>
+  </si>
+  <si>
+    <t>Agent Name</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No authentication policy statement configured</t>
+  </si>
+  <si>
+    <t>Test Data-UAT</t>
+  </si>
+  <si>
+    <t>Test Data-Prod</t>
+  </si>
+  <si>
+    <t>Auth Pop up(TRUE/FALSE)</t>
+  </si>
+  <si>
+    <t>Voucher Id</t>
+  </si>
+  <si>
+    <t>106222035384</t>
+  </si>
+  <si>
+    <t>reverseTransaction</t>
+  </si>
+  <si>
+    <t>resetPin</t>
+  </si>
+  <si>
+    <t>block</t>
+  </si>
+  <si>
+    <t>unblock</t>
+  </si>
+  <si>
+    <t>sendNotification</t>
+  </si>
+  <si>
+    <t>voucher</t>
+  </si>
+  <si>
+    <t>resetMe2UPassword</t>
+  </si>
+  <si>
+    <t>simUnBarring</t>
+  </si>
+  <si>
+    <t>simBarring</t>
+  </si>
+  <si>
+    <t>changeServiceClass</t>
+  </si>
+  <si>
+    <t>Transfer Anyway</t>
+  </si>
+  <si>
+    <t>Question Label</t>
+  </si>
+  <si>
+    <t>Question_Key</t>
+  </si>
+  <si>
+    <t>Answer_key</t>
+  </si>
+  <si>
+    <t>Airtel Money Name</t>
+  </si>
+  <si>
+    <t>AM_NAME</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.firstName</t>
+  </si>
+  <si>
+    <t>AVAILABLE_CREDIT_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/account/plans.result.mainAccountBalance.balance</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.dob</t>
+  </si>
+  <si>
+    <t>GSM Name</t>
+  </si>
+  <si>
+    <t>GSM_NAME</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.name</t>
+  </si>
+  <si>
+    <t>Usage History Last Five Transaction</t>
+  </si>
+  <si>
+    <t>LAST_FIVE_TRANSACTIONS</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_DATE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].dateTime</t>
+  </si>
+  <si>
+    <t>Last Recharge Value</t>
+  </si>
+  <si>
+    <t>LAST_RECHARGE_VALUE</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/recharge/history.result[0].charges</t>
+  </si>
+  <si>
+    <t>Last Transaction Amount</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_AMOUNT</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].amount</t>
+  </si>
+  <si>
+    <t>Last Transaction Id</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_ID</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].transactionId</t>
+  </si>
+  <si>
+    <t>Last Transaction Msisdn</t>
+  </si>
+  <si>
+    <t>LAST_TRANSACTION_MSISDN</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/transaction/history.result.data[0].msisdn</t>
+  </si>
+  <si>
+    <t>National Id</t>
+  </si>
+  <si>
+    <t>NATIONAL_ID</t>
+  </si>
+  <si>
+    <t>cs-gsm-service/v1/gsm/kyc.result.identificationNo</t>
+  </si>
+  <si>
+    <t>Register Id</t>
+  </si>
+  <si>
+    <t>REGISTERED_ID</t>
+  </si>
+  <si>
+    <t>Two Last Dialled Number</t>
+  </si>
+  <si>
+    <t>TWO_LAST_DIALLED_NUMBER</t>
+  </si>
+  <si>
+    <t>AM Wallet Balance</t>
+  </si>
+  <si>
+    <t>WALLET_BALANCE</t>
+  </si>
+  <si>
+    <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1713,6 +1968,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1752,7 +2013,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1859,6 +2120,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1869,7 +2141,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1902,9 +2174,6 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1963,55 +2232,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="61">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2615,7 +2859,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,6 +2889,226 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679AEED6-D105-6D4C-B147-7BAF9DDA6A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="301625"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83922FB9-E51A-A149-B4FF-7427319180C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="301625"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89F4F8F-9016-294C-B68D-4116B5D5C6AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="301625"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D8D153-22B3-694C-BB0F-CA48B466CB76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="301625"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ED3BB9-A497-C648-9A25-A7AEEEB0F9EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1739900"/>
+          <a:ext cx="304800" cy="301625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2910,16 +3374,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2962,64 +3426,88 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="P1" s="29" t="s">
+        <v>530</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="17">
       <c r="A2">
         <v>2390495</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D2">
         <v>68527315</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q2" s="48" t="s">
+        <v>532</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="17">
       <c r="A3">
         <v>2394390</v>
       </c>
       <c r="B3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D3">
         <v>68527316</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q3" s="48" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="17">
       <c r="A4">
         <v>2388192</v>
       </c>
       <c r="B4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D4">
         <v>68527315</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q4" s="48" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17">
       <c r="A5">
         <v>2390495</v>
       </c>
       <c r="B5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D5">
         <v>68527316</v>
+      </c>
+      <c r="Q5" s="48" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -3028,68 +3516,68 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="19"/>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B3" s="20" t="s">
+      <c r="C4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="21"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="B5" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="21"/>
+    </row>
+    <row r="6" spans="1:3" ht="16">
+      <c r="A6" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" s="21"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>170</v>
-      </c>
       <c r="B6" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C6" s="22" t="b">
         <v>1</v>
@@ -3101,65 +3589,65 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="B7" s="3"/>
     </row>
@@ -3169,30 +3657,30 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3201,85 +3689,87 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="34">
       <c r="A1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" ht="56">
       <c r="A2" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="G2" s="25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>186</v>
-      </c>
       <c r="I2" s="23"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3287,47 +3777,245 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:10" ht="16">
+      <c r="A1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="52" t="s">
+        <v>560</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>561</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>135</v>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="J3" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3336,174 +4024,413 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D633C-D6C8-B444-8587-4A1E595E7D7C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44F0D66-B0EF-774C-842C-4DC8A7AE28BA}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="54"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17">
+      <c r="A1" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17">
+      <c r="A2" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51">
+      <c r="A3" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34">
+      <c r="A6" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="55"/>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34">
+      <c r="A10" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17">
+      <c r="A13" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C13" s="55"/>
+    </row>
+    <row r="14" spans="1:3" ht="17">
+      <c r="A14" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C14" s="55"/>
+    </row>
+    <row r="15" spans="1:3" ht="17">
+      <c r="A15" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="J1" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B4" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="B5" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    </row>
+    <row r="6" spans="1:11" ht="16">
+      <c r="A6" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B6" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="16">
+      <c r="A7" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="28" t="s">
+      <c r="B7" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="16">
+      <c r="A8" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="28" t="s">
+      <c r="B8" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="16">
+      <c r="A9" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B9" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="28" t="s">
+      <c r="B10" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3512,46 +4439,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
@@ -3562,476 +4489,611 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="45" t="s">
+        <v>522</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>523</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>534</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16">
+      <c r="A2" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>536</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+    </row>
+    <row r="4" spans="1:13" ht="16">
+      <c r="A4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>486</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>487</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>488</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="45" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>491</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>494</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>495</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>497</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>499</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>500</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>501</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>502</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>503</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="29" t="s">
+        <v>504</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>508</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="1:13" ht="16">
+      <c r="A14" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>510</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>511</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>512</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>513</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="45" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>517</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="45" t="s">
         <v>525</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="B17" s="45" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C17" s="45" t="s">
+        <v>527</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>529</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="45" t="s">
+        <v>538</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>539</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>540</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>541</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>542</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="1:13" ht="32">
+      <c r="A19" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="B19" s="46" t="s">
+        <v>544</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D19" s="45" t="s">
+        <v>545</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="F19" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="H19" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I19" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="L19" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="M19" s="45" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="45" t="s">
+        <v>553</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>488</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>489</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>527</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>490</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>491</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>492</v>
-      </c>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>493</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>494</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>495</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>497</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>498</v>
-      </c>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>499</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>500</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>501</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>502</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>503</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>504</v>
-      </c>
-      <c r="G12" s="30" t="s">
-        <v>505</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>506</v>
-      </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>507</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>508</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>509</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>510</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>511</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>512</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="47" t="s">
-        <v>513</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>514</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>515</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>517</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>518</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>520</v>
-      </c>
-      <c r="H15" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>521</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>522</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>523</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>528</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>529</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>530</v>
-      </c>
-      <c r="D17" s="46" t="s">
-        <v>531</v>
-      </c>
-      <c r="E17" s="46" t="s">
-        <v>532</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
+      <c r="D20" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4040,1430 +5102,1206 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" ht="30">
       <c r="A2" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="R2" s="31" t="s">
+      <c r="P2" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="31" t="s">
-        <v>162</v>
+      <c r="T2" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD2" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="AE2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD2" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF2" s="35">
+      <c r="AF2" s="34">
         <v>0.5</v>
       </c>
-      <c r="AI2" s="39">
+      <c r="AI2" s="38">
         <f>SUM(AB2,AD2,AF2,AH2)</f>
         <v>1.5</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK2" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>473</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB3" s="35">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD3" s="39">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="35"/>
-      <c r="AI3" s="39">
-        <f>SUM(AB3,AD3,AF3,AH3)</f>
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK3" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>469</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R4" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="AK2" s="33" t="s">
         <v>479</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB4" s="33">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF4" s="30">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="39">
-        <f t="shared" ref="AI4" si="0">SUM(AB4,AD4,AF4,AH4)</f>
-        <v>8</v>
-      </c>
-      <c r="AJ4" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK4" s="34" t="s">
-        <v>481</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="60" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="59" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="58" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="30"/>
+      <c r="F2" s="29"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="duplicateValues" dxfId="57" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="duplicateValues" dxfId="56" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="duplicateValues" dxfId="55" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="30" max="30" width="9.140625" style="37"/>
+    <col min="30" max="30" width="9.1640625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="Y1" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Z1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AF1" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AK1" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AL1" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:38" ht="30">
       <c r="A2" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H2" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="30" t="s">
         <v>468</v>
       </c>
-      <c r="H2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>470</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="M2" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N2" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>477</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="R2" s="31" t="s">
+      <c r="P2" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="R2" s="30" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="31" t="s">
-        <v>162</v>
+      <c r="T2" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD2" s="35">
+        <v>0.25</v>
+      </c>
+      <c r="AE2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AB2" s="35">
-        <v>0.75</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD2" s="36">
-        <v>0.25</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF2" s="35">
+      <c r="AF2" s="34">
         <v>0.5</v>
       </c>
-      <c r="AI2" s="39">
+      <c r="AI2" s="38">
         <f>SUM(AB2,AD2,AF2,AH2)</f>
         <v>1.5</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK2" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="AK2" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="45">
       <c r="A3" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="B3" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I3" s="31" t="s">
+      <c r="F3" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>473</v>
       </c>
-      <c r="J3" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="M3" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>478</v>
-      </c>
-      <c r="P3" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q3" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R3" s="31" t="s">
+      <c r="M3" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>476</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="R3" s="30" t="s">
         <v>33</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="31" t="s">
-        <v>162</v>
+      <c r="T3" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AB3" s="35">
+        <v>154</v>
+      </c>
+      <c r="AB3" s="34">
         <v>5</v>
       </c>
       <c r="AC3" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD3" s="39">
+        <v>152</v>
+      </c>
+      <c r="AD3" s="38">
         <v>2</v>
       </c>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="35"/>
-      <c r="AI3" s="39">
+      <c r="AF3" s="34"/>
+      <c r="AI3" s="38">
         <f>SUM(AB3,AD3,AF3,AH3)</f>
         <v>7</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="AK3" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="AK3" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" s="13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H4" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="J4" s="30" t="s">
         <v>469</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>471</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="M4" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O4" s="31" t="s">
+      <c r="K4" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="L4" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N4" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R4" s="31" t="s">
-        <v>479</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="T4" s="31" t="s">
-        <v>162</v>
+      <c r="Q4" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="S4" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB4" s="33">
+        <v>153</v>
+      </c>
+      <c r="AB4" s="32">
         <v>5</v>
       </c>
       <c r="AC4" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AD4" s="38">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AD4" s="39">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="29">
         <v>2</v>
       </c>
-      <c r="AI4" s="39">
+      <c r="AI4" s="38">
         <f t="shared" ref="AI4:AI10" si="0">SUM(AB4,AD4,AF4,AH4)</f>
         <v>8</v>
       </c>
       <c r="AJ4" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="AK4" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="AK4" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" ht="30">
       <c r="A5" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="D5" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>453</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I5" s="31" t="s">
+      <c r="F5" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
+      <c r="K5" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>473</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N5" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
       <c r="AA5" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB5" s="29">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD5" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AB5" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD5" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="29">
         <v>2</v>
       </c>
-      <c r="AI5" s="39">
+      <c r="AI5" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK5" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="AK5" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" ht="75">
       <c r="A6" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>455</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>455</v>
+        <v>343</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>453</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I6" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N6" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O6" s="31" t="s">
+      <c r="K6" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q6" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="S6" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>162</v>
+      <c r="P6" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q6" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="S6" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB6" s="30">
+        <v>156</v>
+      </c>
+      <c r="AB6" s="29">
         <v>12</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD6" s="30">
+        <v>149</v>
+      </c>
+      <c r="AD6" s="29">
         <v>2</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF6" s="30">
+        <v>152</v>
+      </c>
+      <c r="AF6" s="29">
         <v>2</v>
       </c>
-      <c r="AI6" s="39">
+      <c r="AI6" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK6" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="AK6" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" ht="45">
       <c r="A7" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>220</v>
+        <v>449</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O7" s="31" t="s">
+      <c r="K7" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q7" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="S7" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="T7" s="31" t="s">
-        <v>162</v>
+      <c r="P7" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q7" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="R7" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="S7" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="T7" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB7" s="30">
+        <v>156</v>
+      </c>
+      <c r="AB7" s="29">
         <v>12</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD7" s="30">
+        <v>149</v>
+      </c>
+      <c r="AD7" s="29">
         <v>2</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF7" s="30">
+        <v>152</v>
+      </c>
+      <c r="AF7" s="29">
         <v>2</v>
       </c>
-      <c r="AI7" s="39">
+      <c r="AI7" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ7" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK7" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="AK7" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="60">
       <c r="A8" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>459</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>459</v>
+        <v>449</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>457</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I8" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O8" s="31" t="s">
+      <c r="K8" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q8" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R8" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="S8" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="T8" s="31" t="s">
-        <v>162</v>
+      <c r="P8" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q8" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="S8" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="T8" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB8" s="30">
+        <v>156</v>
+      </c>
+      <c r="AB8" s="29">
         <v>12</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD8" s="30">
+        <v>149</v>
+      </c>
+      <c r="AD8" s="29">
         <v>2</v>
       </c>
       <c r="AE8" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF8" s="30">
+        <v>152</v>
+      </c>
+      <c r="AF8" s="29">
         <v>2</v>
       </c>
-      <c r="AI8" s="39">
+      <c r="AI8" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ8" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK8" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="AK8" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" ht="45">
       <c r="A9" s="13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>460</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C9" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>462</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>463</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H9" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I9" s="31" t="s">
+      <c r="F9" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N9" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" s="31" t="s">
+      <c r="K9" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q9" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="S9" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="T9" s="31" t="s">
-        <v>162</v>
+      <c r="P9" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q9" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="S9" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AB9" s="30">
+        <v>156</v>
+      </c>
+      <c r="AB9" s="29">
         <v>12</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD9" s="30">
+        <v>149</v>
+      </c>
+      <c r="AD9" s="29">
         <v>2</v>
       </c>
       <c r="AE9" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF9" s="30">
+        <v>152</v>
+      </c>
+      <c r="AF9" s="29">
         <v>2</v>
       </c>
-      <c r="AI9" s="39">
+      <c r="AI9" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ9" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK9" s="34" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="AK9" s="33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" ht="45">
       <c r="A10" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="B10" s="29" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="F10" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="G10" s="30" t="s">
         <v>466</v>
       </c>
-      <c r="F10" s="31" t="s">
-        <v>467</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I10" s="31" t="s">
+      <c r="H10" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="31" t="s">
-        <v>472</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>476</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="N10" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="O10" s="31" t="s">
+      <c r="K10" s="30" t="s">
+        <v>470</v>
+      </c>
+      <c r="L10" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q10" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R10" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="S10" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="T10" s="31" t="s">
-        <v>162</v>
+      <c r="P10" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="R10" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="S10" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="T10" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="AA10" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB10" s="29">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD10" s="29">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AB10" s="30">
-        <v>5</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD10" s="30">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AF10" s="30">
+      <c r="AF10" s="29">
         <v>2</v>
       </c>
-      <c r="AI10" s="39">
+      <c r="AI10" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AJ10" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK10" s="34" t="s">
-        <v>481</v>
+        <v>150</v>
+      </c>
+      <c r="AK10" s="33" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -5494,1600 +6332,1600 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="F1" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="C3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F6" s="29"/>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="60">
+      <c r="A8" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="45">
+      <c r="A9" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6" ht="45">
+      <c r="A11" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" ht="60">
+      <c r="A12" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="45">
+      <c r="A13" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" ht="30">
+      <c r="A14" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" ht="45">
+      <c r="A15" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" ht="45">
+      <c r="A16" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" ht="60">
+      <c r="A17" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" s="29"/>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" s="29"/>
+    </row>
+    <row r="19" spans="1:6" ht="45">
+      <c r="A19" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" ht="45">
+      <c r="A22" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" ht="45">
+      <c r="A23" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" ht="45">
+      <c r="A24" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" ht="45">
+      <c r="A25" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" ht="60">
+      <c r="A26" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" ht="45">
+      <c r="A27" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="29"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" ht="45">
+      <c r="A29" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" ht="45">
+      <c r="A30" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" ht="45">
+      <c r="A31" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" ht="45">
+      <c r="A32" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="D32" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="D33" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:6" ht="45">
+      <c r="A34" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D34" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" ht="45">
+      <c r="A35" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" ht="45">
+      <c r="A39" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" ht="45">
+      <c r="A40" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" ht="45">
+      <c r="A41" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" ht="60">
+      <c r="A42" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="D42" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:6" ht="60">
+      <c r="A43" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F43" s="29"/>
+    </row>
+    <row r="44" spans="1:6" ht="45">
+      <c r="A44" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" ht="60">
+      <c r="A45" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6" ht="45">
+      <c r="A46" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" ht="45">
+      <c r="A47" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F48" s="29"/>
+    </row>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D49" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:6" ht="45">
+      <c r="A50" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="1:6" ht="45">
+      <c r="A51" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="F51" s="29"/>
+    </row>
+    <row r="52" spans="1:6" ht="45">
+      <c r="A52" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C52" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F52" s="29"/>
+    </row>
+    <row r="53" spans="1:6" ht="45">
+      <c r="A53" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="D53" s="44" t="s">
+        <v>336</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F53" s="29"/>
+    </row>
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F54" s="29"/>
+    </row>
+    <row r="55" spans="1:6" ht="75">
+      <c r="A55" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="D55" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F55" s="29"/>
+    </row>
+    <row r="56" spans="1:6" ht="75">
+      <c r="A56" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="F56" s="29"/>
+    </row>
+    <row r="57" spans="1:6" ht="60">
+      <c r="A57" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D57" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" ht="45">
+      <c r="A58" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="D58" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" ht="45">
+      <c r="A59" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F59" s="29"/>
+    </row>
+    <row r="60" spans="1:6" ht="45">
+      <c r="A60" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D60" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="F60" s="29"/>
+    </row>
+    <row r="61" spans="1:6" ht="45">
+      <c r="A61" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F61" s="29"/>
+    </row>
+    <row r="62" spans="1:6" ht="45">
+      <c r="A62" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" ht="45">
+      <c r="A63" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F63" s="29"/>
+    </row>
+    <row r="64" spans="1:6" ht="45">
+      <c r="A64" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F64" s="29"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="F65" s="29"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" ht="30">
+      <c r="A67" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="29"/>
+    </row>
+    <row r="68" spans="1:6" ht="45">
+      <c r="A68" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="C68" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="29"/>
+    </row>
+    <row r="69" spans="1:6" ht="45">
+      <c r="A69" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>380</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="D69" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F69" s="29"/>
+    </row>
+    <row r="70" spans="1:6" ht="45">
+      <c r="A70" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>383</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="F70" s="29"/>
+    </row>
+    <row r="71" spans="1:6" ht="30">
+      <c r="A71" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="C71" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F71" s="29"/>
+    </row>
+    <row r="72" spans="1:6" ht="45">
+      <c r="A72" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F72" s="29"/>
+    </row>
+    <row r="73" spans="1:6" ht="60">
+      <c r="A73" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="C73" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>393</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F73" s="29"/>
+    </row>
+    <row r="74" spans="1:6" ht="45">
+      <c r="A74" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="F74" s="29"/>
+    </row>
+    <row r="75" spans="1:6" ht="60">
+      <c r="A75" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="F75" s="29"/>
+    </row>
+    <row r="76" spans="1:6" ht="60">
+      <c r="A76" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="D76" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="F76" s="29"/>
+    </row>
+    <row r="77" spans="1:6" ht="45">
+      <c r="A77" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F77" s="29"/>
+    </row>
+    <row r="78" spans="1:6" ht="60">
+      <c r="A78" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="F78" s="29"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>410</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F79" s="29"/>
+    </row>
+    <row r="80" spans="1:6" ht="45">
+      <c r="A80" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F3" s="30"/>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="C80" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F80" s="29"/>
+    </row>
+    <row r="81" spans="1:6" ht="45">
+      <c r="A81" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F81" s="29"/>
+    </row>
+    <row r="82" spans="1:6" ht="45">
+      <c r="A82" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F82" s="29"/>
+    </row>
+    <row r="83" spans="1:6" ht="30">
+      <c r="A83" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="D83" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="F83" s="29"/>
+    </row>
+    <row r="84" spans="1:6" ht="60">
+      <c r="A84" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F84" s="29"/>
+    </row>
+    <row r="85" spans="1:6" ht="30">
+      <c r="A85" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="B85" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="F85" s="29"/>
+    </row>
+    <row r="86" spans="1:6" ht="45">
+      <c r="A86" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>430</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="F86" s="29"/>
+    </row>
+    <row r="87" spans="1:6" ht="60">
+      <c r="A87" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F4" s="30"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="F5" s="30"/>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="30"/>
-    </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="30"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="F10" s="30"/>
-    </row>
-    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F14" s="30"/>
-    </row>
-    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>232</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F15" s="30"/>
-    </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="F16" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="D19" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F19" s="30"/>
-    </row>
-    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="D20" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F21" s="30"/>
-    </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>250</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F22" s="30"/>
-    </row>
-    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="C24" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C27" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F28" s="30"/>
-    </row>
-    <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="D29" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="D30" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B32" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="C33" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B35" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="C36" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>288</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>290</v>
-      </c>
-      <c r="C37" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F37" s="30"/>
-    </row>
-    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="F38" s="30"/>
-    </row>
-    <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F39" s="30"/>
-    </row>
-    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>299</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>300</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40" s="30"/>
-    </row>
-    <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>302</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="F41" s="30"/>
-    </row>
-    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B44" s="29" t="s">
-        <v>311</v>
-      </c>
-      <c r="C44" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="D44" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>313</v>
-      </c>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A45" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>314</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>315</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F45" s="30"/>
-    </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>318</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B47" s="29" t="s">
-        <v>320</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="D47" s="29" t="s">
-        <v>321</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F47" s="30"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="F48" s="30"/>
-    </row>
-    <row r="49" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="D49" s="29" t="s">
-        <v>326</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="F49" s="30"/>
-    </row>
-    <row r="50" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="C50" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="F50" s="30"/>
-    </row>
-    <row r="51" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="D51" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="F51" s="30"/>
-    </row>
-    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B52" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="C52" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="D52" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F52" s="30"/>
-    </row>
-    <row r="53" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>337</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="D53" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="F53" s="30"/>
-    </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B54" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="D54" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="F54" s="30"/>
-    </row>
-    <row r="55" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B55" s="29" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F55" s="30"/>
-    </row>
-    <row r="56" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>345</v>
-      </c>
-      <c r="C56" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="D56" s="29" t="s">
-        <v>346</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F56" s="30"/>
-    </row>
-    <row r="57" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B57" s="29" t="s">
-        <v>348</v>
-      </c>
-      <c r="C57" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="D57" s="29" t="s">
-        <v>349</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F57" s="30"/>
-    </row>
-    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="C58" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>352</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="F58" s="30"/>
-    </row>
-    <row r="59" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B59" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F59" s="30"/>
-    </row>
-    <row r="60" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B60" s="29" t="s">
-        <v>357</v>
-      </c>
-      <c r="C60" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="D60" s="29" t="s">
-        <v>358</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="F60" s="30"/>
-    </row>
-    <row r="61" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="F61" s="30"/>
-    </row>
-    <row r="62" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" s="29" t="s">
-        <v>363</v>
-      </c>
-      <c r="C62" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="F62" s="30"/>
-    </row>
-    <row r="63" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B63" s="29" t="s">
-        <v>366</v>
-      </c>
-      <c r="C63" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>367</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F63" s="30"/>
-    </row>
-    <row r="64" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>370</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="F64" s="30"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F65" s="30"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="F66" s="30"/>
-    </row>
-    <row r="67" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>379</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A68" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="C68" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E68" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F68" s="30"/>
-    </row>
-    <row r="69" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="C69" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>383</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F69" s="30"/>
-    </row>
-    <row r="70" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="C70" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="D70" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="F70" s="30"/>
-    </row>
-    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B71" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="C71" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="D71" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="F71" s="30"/>
-    </row>
-    <row r="72" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="C72" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="D72" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="F72" s="30"/>
-    </row>
-    <row r="73" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B73" s="29" t="s">
-        <v>394</v>
-      </c>
-      <c r="C73" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="F73" s="30"/>
-    </row>
-    <row r="74" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="D74" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="F74" s="30"/>
-    </row>
-    <row r="75" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="D75" s="40" t="s">
-        <v>401</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F75" s="30"/>
-    </row>
-    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="D76" s="40" t="s">
-        <v>404</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="F76" s="30"/>
-    </row>
-    <row r="77" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B77" s="41" t="s">
-        <v>406</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="F77" s="30"/>
-    </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A78" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="29" t="s">
-        <v>409</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="F78" s="30"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>412</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="F79" s="30"/>
-    </row>
-    <row r="80" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="D80" s="29" t="s">
-        <v>415</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="F80" s="30"/>
-    </row>
-    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="D81" s="29" t="s">
-        <v>418</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="F81" s="30"/>
-    </row>
-    <row r="82" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B82" s="29" t="s">
-        <v>420</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="D82" s="29" t="s">
-        <v>421</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="F82" s="30"/>
-    </row>
-    <row r="83" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="D83" s="29" t="s">
-        <v>424</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="F83" s="30"/>
-    </row>
-    <row r="84" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="D84" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F84" s="30"/>
-    </row>
-    <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B85" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="D85" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="F85" s="30"/>
-    </row>
-    <row r="86" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A86" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B86" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="C86" s="29" t="s">
+      <c r="B87" s="28" t="s">
         <v>433</v>
       </c>
-      <c r="D86" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="E86" s="13" t="s">
+      <c r="C87" s="28" t="s">
         <v>434</v>
       </c>
-      <c r="F86" s="30"/>
-    </row>
-    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B87" s="29" t="s">
+      <c r="D87" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="C87" s="29" t="s">
+      <c r="F87" s="29"/>
+    </row>
+    <row r="88" spans="1:6" ht="60">
+      <c r="A88" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B88" s="28" t="s">
         <v>436</v>
       </c>
-      <c r="D87" s="29" t="s">
-        <v>436</v>
-      </c>
-      <c r="E87" s="13" t="s">
+      <c r="C88" s="28" t="s">
         <v>437</v>
       </c>
-      <c r="F87" s="30"/>
-    </row>
-    <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" s="29" t="s">
+      <c r="D88" s="28" t="s">
+        <v>437</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="C88" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="D88" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="F88" s="30"/>
+      <c r="F88" s="29"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3">
@@ -7233,108 +8071,108 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C4" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B5" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="13" t="s">
+    <row r="6" spans="1:3" ht="30">
+      <c r="B6" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="15" t="s">
+    <row r="7" spans="1:3" ht="45">
+      <c r="B7" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+    <row r="8" spans="1:3">
+      <c r="B8" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+    <row r="9" spans="1:3">
+      <c r="B9" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7343,55 +8181,64 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E1" s="51" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
       <c r="A2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2">
         <v>68527315</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E2" s="49" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
       <c r="A3" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>164</v>
       </c>
       <c r="D3">
         <v>68527315</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9221D7A-5003-7543-97B5-9DCFAE56F99B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34980" windowHeight="9860" firstSheet="4" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34980" windowHeight="9855" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="628">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1894,13 +1893,49 @@
   </si>
   <si>
     <t>cs-am-service/v1/profile.result.wallet[0].balance</t>
+  </si>
+  <si>
+    <t>UC-UT Offer</t>
+  </si>
+  <si>
+    <t>Offer ID</t>
+  </si>
+  <si>
+    <t>Offer Name</t>
+  </si>
+  <si>
+    <t>Product ID</t>
+  </si>
+  <si>
+    <t>PAM Service ID</t>
+  </si>
+  <si>
+    <t>Offer Type</t>
+  </si>
+  <si>
+    <t>Offer State</t>
+  </si>
+  <si>
+    <t>No. Of DAs</t>
+  </si>
+  <si>
+    <t>Friends and Family</t>
+  </si>
+  <si>
+    <t>FnF Number</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>FnF Indicator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2250,10 +2285,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="4"/>
+    <cellStyle name="Normal 5" xfId="1"/>
+    <cellStyle name="Normal 6" xfId="2"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -2859,7 +2894,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,7 +2942,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679AEED6-D105-6D4C-B147-7BAF9DDA6A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{679AEED6-D105-6D4C-B147-7BAF9DDA6A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2950,7 +2985,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83922FB9-E51A-A149-B4FF-7427319180C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83922FB9-E51A-A149-B4FF-7427319180C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2993,7 +3028,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89F4F8F-9016-294C-B68D-4116B5D5C6AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E89F4F8F-9016-294C-B68D-4116B5D5C6AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3036,7 +3071,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D8D153-22B3-694C-BB0F-CA48B466CB76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08D8D153-22B3-694C-BB0F-CA48B466CB76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,7 +3114,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ED3BB9-A497-C648-9A25-A7AEEEB0F9EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41ED3BB9-A497-C648-9A25-A7AEEEB0F9EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,16 +3409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3471,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17">
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2390495</v>
       </c>
@@ -3459,7 +3494,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17">
+    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2394390</v>
       </c>
@@ -3476,7 +3511,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17">
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2388192</v>
       </c>
@@ -3493,7 +3528,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17">
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2390495</v>
       </c>
@@ -3516,16 +3551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>101</v>
       </c>
@@ -3536,7 +3571,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>163</v>
       </c>
@@ -3545,7 +3580,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>164</v>
       </c>
@@ -3554,7 +3589,7 @@
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>166</v>
       </c>
@@ -3563,7 +3598,7 @@
       </c>
       <c r="C4" s="21"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>167</v>
       </c>
@@ -3572,7 +3607,7 @@
       </c>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>168</v>
       </c>
@@ -3589,19 +3624,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>104</v>
       </c>
@@ -3609,7 +3644,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>169</v>
       </c>
@@ -3617,7 +3652,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -3625,7 +3660,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
@@ -3633,19 +3668,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>177</v>
       </c>
@@ -3657,16 +3692,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
@@ -3689,16 +3724,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="34">
+    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>111</v>
       </c>
@@ -3739,7 +3774,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="56">
+    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>178</v>
       </c>
@@ -3777,16 +3812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="16">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>124</v>
       </c>
@@ -3818,7 +3853,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
@@ -3838,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>563</v>
       </c>
@@ -3858,7 +3893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>565</v>
       </c>
@@ -3874,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>566</v>
       </c>
@@ -3890,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>567</v>
       </c>
@@ -3906,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>568</v>
       </c>
@@ -3922,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>569</v>
       </c>
@@ -3938,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>570</v>
       </c>
@@ -3954,7 +3989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>571</v>
       </c>
@@ -3970,7 +4005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>572</v>
       </c>
@@ -3986,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>573</v>
       </c>
@@ -4002,7 +4037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>574</v>
       </c>
@@ -4024,16 +4059,16 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D633C-D6C8-B444-8587-4A1E595E7D7C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
@@ -4044,7 +4079,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>149</v>
       </c>
@@ -4055,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>150</v>
       </c>
@@ -4066,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>151</v>
       </c>
@@ -4083,22 +4118,22 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44F0D66-B0EF-774C-842C-4DC8A7AE28BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.83203125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="54"/>
+    <col min="1" max="1" width="29.85546875" style="54" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="54" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>576</v>
       </c>
@@ -4109,7 +4144,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>579</v>
       </c>
@@ -4120,7 +4155,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="51">
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>183</v>
       </c>
@@ -4131,7 +4166,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>584</v>
       </c>
@@ -4142,7 +4177,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>587</v>
       </c>
@@ -4153,7 +4188,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="34">
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>590</v>
       </c>
@@ -4162,7 +4197,7 @@
       </c>
       <c r="C6" s="55"/>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>182</v>
       </c>
@@ -4173,7 +4208,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17">
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>594</v>
       </c>
@@ -4184,7 +4219,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17">
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>597</v>
       </c>
@@ -4195,7 +4230,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="34">
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>600</v>
       </c>
@@ -4206,7 +4241,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17">
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>603</v>
       </c>
@@ -4217,7 +4252,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17">
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>606</v>
       </c>
@@ -4228,7 +4263,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>609</v>
       </c>
@@ -4237,7 +4272,7 @@
       </c>
       <c r="C13" s="55"/>
     </row>
-    <row r="14" spans="1:3" ht="17">
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>611</v>
       </c>
@@ -4246,7 +4281,7 @@
       </c>
       <c r="C14" s="55"/>
     </row>
-    <row r="15" spans="1:3" ht="17">
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>613</v>
       </c>
@@ -4263,16 +4298,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>134</v>
       </c>
@@ -4307,7 +4342,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>149</v>
       </c>
@@ -4321,7 +4356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>150</v>
       </c>
@@ -4335,7 +4370,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>151</v>
       </c>
@@ -4349,7 +4384,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>152</v>
       </c>
@@ -4363,7 +4398,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>153</v>
       </c>
@@ -4377,7 +4412,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>154</v>
       </c>
@@ -4391,7 +4426,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>155</v>
       </c>
@@ -4405,7 +4440,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>156</v>
       </c>
@@ -4419,7 +4454,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>157</v>
       </c>
@@ -4439,46 +4474,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
@@ -4489,29 +4524,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>22</v>
       </c>
@@ -4552,7 +4587,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>31</v>
       </c>
@@ -4579,7 +4614,7 @@
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>36</v>
       </c>
@@ -4606,7 +4641,7 @@
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -4633,7 +4668,7 @@
       <c r="L4" s="29"/>
       <c r="M4" s="29"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>43</v>
       </c>
@@ -4666,7 +4701,7 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>49</v>
       </c>
@@ -4691,7 +4726,7 @@
       <c r="L6" s="29"/>
       <c r="M6" s="29"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>51</v>
       </c>
@@ -4716,7 +4751,7 @@
       <c r="L7" s="29"/>
       <c r="M7" s="29"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>53</v>
       </c>
@@ -4743,7 +4778,7 @@
       <c r="L8" s="29"/>
       <c r="M8" s="29"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>56</v>
       </c>
@@ -4770,7 +4805,7 @@
       <c r="L9" s="29"/>
       <c r="M9" s="29"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>485</v>
       </c>
@@ -4797,7 +4832,7 @@
       <c r="L10" s="29"/>
       <c r="M10" s="29"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>490</v>
       </c>
@@ -4824,7 +4859,7 @@
       <c r="L11" s="29"/>
       <c r="M11" s="29"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>496</v>
       </c>
@@ -4855,7 +4890,7 @@
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>504</v>
       </c>
@@ -4880,7 +4915,7 @@
       <c r="L13" s="29"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="45" t="s">
         <v>509</v>
       </c>
@@ -4917,7 +4952,7 @@
       <c r="L14" s="29"/>
       <c r="M14" s="29"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
         <v>514</v>
       </c>
@@ -4948,7 +4983,7 @@
       <c r="L15" s="29"/>
       <c r="M15" s="29"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="45" t="s">
         <v>518</v>
       </c>
@@ -4973,7 +5008,7 @@
       <c r="L16" s="29"/>
       <c r="M16" s="29"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="45" t="s">
         <v>525</v>
       </c>
@@ -4998,7 +5033,7 @@
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="45" t="s">
         <v>538</v>
       </c>
@@ -5025,7 +5060,7 @@
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
     </row>
-    <row r="19" spans="1:13" ht="32">
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>543</v>
       </c>
@@ -5066,7 +5101,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
         <v>553</v>
       </c>
@@ -5094,6 +5129,70 @@
       <c r="K20" s="29"/>
       <c r="L20" s="29"/>
       <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>616</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>618</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>619</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>621</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>622</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>623</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>624</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5102,16 +5201,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -5227,7 +5326,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="30">
+    <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>439</v>
       </c>
@@ -5326,16 +5425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -5355,7 +5454,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>189</v>
       </c>
@@ -5382,19 +5481,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="30" max="30" width="9.1640625" style="36"/>
+    <col min="30" max="30" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -5510,7 +5609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="30">
+    <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>439</v>
       </c>
@@ -5600,7 +5699,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="45">
+    <row r="3" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>439</v>
       </c>
@@ -5686,7 +5785,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>439</v>
       </c>
@@ -5776,7 +5875,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="30">
+    <row r="5" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>449</v>
       </c>
@@ -5854,7 +5953,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="75">
+    <row r="6" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>449</v>
       </c>
@@ -5944,7 +6043,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="45">
+    <row r="7" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>449</v>
       </c>
@@ -6034,7 +6133,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="60">
+    <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>449</v>
       </c>
@@ -6124,7 +6223,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="45">
+    <row r="9" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>449</v>
       </c>
@@ -6214,7 +6313,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="45">
+    <row r="10" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>449</v>
       </c>
@@ -6332,16 +6431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
@@ -6361,7 +6460,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>189</v>
       </c>
@@ -6379,7 +6478,7 @@
       </c>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>189</v>
       </c>
@@ -6397,7 +6496,7 @@
       </c>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>189</v>
       </c>
@@ -6415,7 +6514,7 @@
       </c>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>199</v>
       </c>
@@ -6433,7 +6532,7 @@
       </c>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>189</v>
       </c>
@@ -6451,7 +6550,7 @@
       </c>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>189</v>
       </c>
@@ -6469,7 +6568,7 @@
       </c>
       <c r="F7" s="29"/>
     </row>
-    <row r="8" spans="1:6" ht="60">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>189</v>
       </c>
@@ -6487,7 +6586,7 @@
       </c>
       <c r="F8" s="29"/>
     </row>
-    <row r="9" spans="1:6" ht="45">
+    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>189</v>
       </c>
@@ -6505,7 +6604,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>199</v>
       </c>
@@ -6523,7 +6622,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>189</v>
       </c>
@@ -6541,7 +6640,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>221</v>
       </c>
@@ -6559,7 +6658,7 @@
       </c>
       <c r="F12" s="29"/>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>189</v>
       </c>
@@ -6577,7 +6676,7 @@
       </c>
       <c r="F13" s="29"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>189</v>
       </c>
@@ -6595,7 +6694,7 @@
       </c>
       <c r="F14" s="29"/>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>189</v>
       </c>
@@ -6613,7 +6712,7 @@
       </c>
       <c r="F15" s="29"/>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>189</v>
       </c>
@@ -6631,7 +6730,7 @@
       </c>
       <c r="F16" s="29"/>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>189</v>
       </c>
@@ -6649,7 +6748,7 @@
       </c>
       <c r="F17" s="29"/>
     </row>
-    <row r="18" spans="1:6" ht="45">
+    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>199</v>
       </c>
@@ -6667,7 +6766,7 @@
       </c>
       <c r="F18" s="29"/>
     </row>
-    <row r="19" spans="1:6" ht="45">
+    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>199</v>
       </c>
@@ -6685,7 +6784,7 @@
       </c>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="1:6" ht="45">
+    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>189</v>
       </c>
@@ -6703,7 +6802,7 @@
       </c>
       <c r="F20" s="29"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>189</v>
       </c>
@@ -6721,7 +6820,7 @@
       </c>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:6" ht="45">
+    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>189</v>
       </c>
@@ -6739,7 +6838,7 @@
       </c>
       <c r="F22" s="29"/>
     </row>
-    <row r="23" spans="1:6" ht="45">
+    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>189</v>
       </c>
@@ -6757,7 +6856,7 @@
       </c>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:6" ht="45">
+    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>199</v>
       </c>
@@ -6775,7 +6874,7 @@
       </c>
       <c r="F24" s="29"/>
     </row>
-    <row r="25" spans="1:6" ht="45">
+    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>189</v>
       </c>
@@ -6793,7 +6892,7 @@
       </c>
       <c r="F25" s="29"/>
     </row>
-    <row r="26" spans="1:6" ht="60">
+    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>189</v>
       </c>
@@ -6811,7 +6910,7 @@
       </c>
       <c r="F26" s="29"/>
     </row>
-    <row r="27" spans="1:6" ht="45">
+    <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>189</v>
       </c>
@@ -6829,7 +6928,7 @@
       </c>
       <c r="F27" s="29"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>189</v>
       </c>
@@ -6847,7 +6946,7 @@
       </c>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:6" ht="45">
+    <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>189</v>
       </c>
@@ -6865,7 +6964,7 @@
       </c>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:6" ht="45">
+    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>189</v>
       </c>
@@ -6883,7 +6982,7 @@
       </c>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:6" ht="45">
+    <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>189</v>
       </c>
@@ -6901,7 +7000,7 @@
       </c>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:6" ht="45">
+    <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>199</v>
       </c>
@@ -6919,7 +7018,7 @@
       </c>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" ht="45">
+    <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>199</v>
       </c>
@@ -6937,7 +7036,7 @@
       </c>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" ht="45">
+    <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>189</v>
       </c>
@@ -6955,7 +7054,7 @@
       </c>
       <c r="F34" s="29"/>
     </row>
-    <row r="35" spans="1:6" ht="45">
+    <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>189</v>
       </c>
@@ -6973,7 +7072,7 @@
       </c>
       <c r="F35" s="29"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>199</v>
       </c>
@@ -6991,7 +7090,7 @@
       </c>
       <c r="F36" s="29"/>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>189</v>
       </c>
@@ -7009,7 +7108,7 @@
       </c>
       <c r="F37" s="29"/>
     </row>
-    <row r="38" spans="1:6" ht="45">
+    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>189</v>
       </c>
@@ -7027,7 +7126,7 @@
       </c>
       <c r="F38" s="29"/>
     </row>
-    <row r="39" spans="1:6" ht="45">
+    <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>189</v>
       </c>
@@ -7045,7 +7144,7 @@
       </c>
       <c r="F39" s="29"/>
     </row>
-    <row r="40" spans="1:6" ht="45">
+    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>199</v>
       </c>
@@ -7063,7 +7162,7 @@
       </c>
       <c r="F40" s="29"/>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>199</v>
       </c>
@@ -7081,7 +7180,7 @@
       </c>
       <c r="F41" s="29"/>
     </row>
-    <row r="42" spans="1:6" ht="60">
+    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>189</v>
       </c>
@@ -7099,7 +7198,7 @@
       </c>
       <c r="F42" s="29"/>
     </row>
-    <row r="43" spans="1:6" ht="60">
+    <row r="43" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>189</v>
       </c>
@@ -7117,7 +7216,7 @@
       </c>
       <c r="F43" s="29"/>
     </row>
-    <row r="44" spans="1:6" ht="45">
+    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>189</v>
       </c>
@@ -7135,7 +7234,7 @@
       </c>
       <c r="F44" s="29"/>
     </row>
-    <row r="45" spans="1:6" ht="60">
+    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>189</v>
       </c>
@@ -7153,7 +7252,7 @@
       </c>
       <c r="F45" s="29"/>
     </row>
-    <row r="46" spans="1:6" ht="45">
+    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>189</v>
       </c>
@@ -7171,7 +7270,7 @@
       </c>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="1:6" ht="45">
+    <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>189</v>
       </c>
@@ -7189,7 +7288,7 @@
       </c>
       <c r="F47" s="29"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>189</v>
       </c>
@@ -7207,7 +7306,7 @@
       </c>
       <c r="F48" s="29"/>
     </row>
-    <row r="49" spans="1:6" ht="30">
+    <row r="49" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>189</v>
       </c>
@@ -7225,7 +7324,7 @@
       </c>
       <c r="F49" s="29"/>
     </row>
-    <row r="50" spans="1:6" ht="45">
+    <row r="50" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>189</v>
       </c>
@@ -7243,7 +7342,7 @@
       </c>
       <c r="F50" s="29"/>
     </row>
-    <row r="51" spans="1:6" ht="45">
+    <row r="51" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>189</v>
       </c>
@@ -7261,7 +7360,7 @@
       </c>
       <c r="F51" s="29"/>
     </row>
-    <row r="52" spans="1:6" ht="45">
+    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>199</v>
       </c>
@@ -7279,7 +7378,7 @@
       </c>
       <c r="F52" s="29"/>
     </row>
-    <row r="53" spans="1:6" ht="45">
+    <row r="53" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>189</v>
       </c>
@@ -7297,7 +7396,7 @@
       </c>
       <c r="F53" s="29"/>
     </row>
-    <row r="54" spans="1:6" ht="30">
+    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>189</v>
       </c>
@@ -7315,7 +7414,7 @@
       </c>
       <c r="F54" s="29"/>
     </row>
-    <row r="55" spans="1:6" ht="75">
+    <row r="55" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>199</v>
       </c>
@@ -7333,7 +7432,7 @@
       </c>
       <c r="F55" s="29"/>
     </row>
-    <row r="56" spans="1:6" ht="75">
+    <row r="56" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>199</v>
       </c>
@@ -7351,7 +7450,7 @@
       </c>
       <c r="F56" s="29"/>
     </row>
-    <row r="57" spans="1:6" ht="60">
+    <row r="57" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>199</v>
       </c>
@@ -7369,7 +7468,7 @@
       </c>
       <c r="F57" s="29"/>
     </row>
-    <row r="58" spans="1:6" ht="45">
+    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>189</v>
       </c>
@@ -7387,7 +7486,7 @@
       </c>
       <c r="F58" s="29"/>
     </row>
-    <row r="59" spans="1:6" ht="45">
+    <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
         <v>199</v>
       </c>
@@ -7405,7 +7504,7 @@
       </c>
       <c r="F59" s="29"/>
     </row>
-    <row r="60" spans="1:6" ht="45">
+    <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
         <v>199</v>
       </c>
@@ -7423,7 +7522,7 @@
       </c>
       <c r="F60" s="29"/>
     </row>
-    <row r="61" spans="1:6" ht="45">
+    <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
         <v>199</v>
       </c>
@@ -7441,7 +7540,7 @@
       </c>
       <c r="F61" s="29"/>
     </row>
-    <row r="62" spans="1:6" ht="45">
+    <row r="62" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
         <v>199</v>
       </c>
@@ -7459,7 +7558,7 @@
       </c>
       <c r="F62" s="29"/>
     </row>
-    <row r="63" spans="1:6" ht="45">
+    <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>199</v>
       </c>
@@ -7477,7 +7576,7 @@
       </c>
       <c r="F63" s="29"/>
     </row>
-    <row r="64" spans="1:6" ht="45">
+    <row r="64" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
         <v>199</v>
       </c>
@@ -7495,7 +7594,7 @@
       </c>
       <c r="F64" s="29"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
         <v>189</v>
       </c>
@@ -7513,7 +7612,7 @@
       </c>
       <c r="F65" s="29"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
         <v>199</v>
       </c>
@@ -7531,7 +7630,7 @@
       </c>
       <c r="F66" s="29"/>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
         <v>199</v>
       </c>
@@ -7549,7 +7648,7 @@
       </c>
       <c r="F67" s="29"/>
     </row>
-    <row r="68" spans="1:6" ht="45">
+    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
         <v>189</v>
       </c>
@@ -7567,7 +7666,7 @@
       </c>
       <c r="F68" s="29"/>
     </row>
-    <row r="69" spans="1:6" ht="45">
+    <row r="69" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
         <v>199</v>
       </c>
@@ -7585,7 +7684,7 @@
       </c>
       <c r="F69" s="29"/>
     </row>
-    <row r="70" spans="1:6" ht="45">
+    <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
         <v>199</v>
       </c>
@@ -7603,7 +7702,7 @@
       </c>
       <c r="F70" s="29"/>
     </row>
-    <row r="71" spans="1:6" ht="30">
+    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
         <v>189</v>
       </c>
@@ -7621,7 +7720,7 @@
       </c>
       <c r="F71" s="29"/>
     </row>
-    <row r="72" spans="1:6" ht="45">
+    <row r="72" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>189</v>
       </c>
@@ -7639,7 +7738,7 @@
       </c>
       <c r="F72" s="29"/>
     </row>
-    <row r="73" spans="1:6" ht="60">
+    <row r="73" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
         <v>199</v>
       </c>
@@ -7657,7 +7756,7 @@
       </c>
       <c r="F73" s="29"/>
     </row>
-    <row r="74" spans="1:6" ht="45">
+    <row r="74" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>199</v>
       </c>
@@ -7675,7 +7774,7 @@
       </c>
       <c r="F74" s="29"/>
     </row>
-    <row r="75" spans="1:6" ht="60">
+    <row r="75" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
         <v>199</v>
       </c>
@@ -7693,7 +7792,7 @@
       </c>
       <c r="F75" s="29"/>
     </row>
-    <row r="76" spans="1:6" ht="60">
+    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
         <v>199</v>
       </c>
@@ -7711,7 +7810,7 @@
       </c>
       <c r="F76" s="29"/>
     </row>
-    <row r="77" spans="1:6" ht="45">
+    <row r="77" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
         <v>199</v>
       </c>
@@ -7729,7 +7828,7 @@
       </c>
       <c r="F77" s="29"/>
     </row>
-    <row r="78" spans="1:6" ht="60">
+    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
         <v>189</v>
       </c>
@@ -7747,7 +7846,7 @@
       </c>
       <c r="F78" s="29"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
         <v>221</v>
       </c>
@@ -7765,7 +7864,7 @@
       </c>
       <c r="F79" s="29"/>
     </row>
-    <row r="80" spans="1:6" ht="45">
+    <row r="80" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
         <v>189</v>
       </c>
@@ -7783,7 +7882,7 @@
       </c>
       <c r="F80" s="29"/>
     </row>
-    <row r="81" spans="1:6" ht="45">
+    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>189</v>
       </c>
@@ -7801,7 +7900,7 @@
       </c>
       <c r="F81" s="29"/>
     </row>
-    <row r="82" spans="1:6" ht="45">
+    <row r="82" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>189</v>
       </c>
@@ -7819,7 +7918,7 @@
       </c>
       <c r="F82" s="29"/>
     </row>
-    <row r="83" spans="1:6" ht="30">
+    <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>189</v>
       </c>
@@ -7837,7 +7936,7 @@
       </c>
       <c r="F83" s="29"/>
     </row>
-    <row r="84" spans="1:6" ht="60">
+    <row r="84" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>189</v>
       </c>
@@ -7855,7 +7954,7 @@
       </c>
       <c r="F84" s="29"/>
     </row>
-    <row r="85" spans="1:6" ht="30">
+    <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>199</v>
       </c>
@@ -7873,7 +7972,7 @@
       </c>
       <c r="F85" s="29"/>
     </row>
-    <row r="86" spans="1:6" ht="45">
+    <row r="86" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>189</v>
       </c>
@@ -7891,7 +7990,7 @@
       </c>
       <c r="F86" s="29"/>
     </row>
-    <row r="87" spans="1:6" ht="60">
+    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>199</v>
       </c>
@@ -7909,7 +8008,7 @@
       </c>
       <c r="F87" s="29"/>
     </row>
-    <row r="88" spans="1:6" ht="60">
+    <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>189</v>
       </c>
@@ -8071,16 +8170,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>94</v>
       </c>
@@ -8091,7 +8190,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>145</v>
       </c>
@@ -8102,7 +8201,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>146</v>
       </c>
@@ -8113,7 +8212,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>147</v>
       </c>
@@ -8124,7 +8223,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>148</v>
       </c>
@@ -8135,7 +8234,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>153</v>
       </c>
@@ -8143,7 +8242,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45">
+    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>154</v>
       </c>
@@ -8151,7 +8250,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>155</v>
       </c>
@@ -8159,7 +8258,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>156</v>
       </c>
@@ -8167,7 +8266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>157</v>
       </c>
@@ -8181,16 +8280,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -8207,7 +8306,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>158</v>
       </c>
@@ -8224,7 +8323,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>159</v>
       </c>

--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2394650\IdeaProjects\cs-portal-automation_selenium1\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23127836\IdeaProjects\cs-portal-automation_selenium\resources\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34980" windowHeight="9855" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="34980" windowHeight="9855" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,11 @@
     <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId12"/>
     <sheet name="Authentication Policy" sheetId="13" r:id="rId13"/>
     <sheet name="Action Tagging" sheetId="14" r:id="rId14"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId15"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId16"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId15"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId16"/>
     <sheet name="State Queue Mapping" sheetId="15" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="631">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -583,9 +583,6 @@
   </si>
   <si>
     <t>National ID/Passport/Alien Number (Mandatory)</t>
-  </si>
-  <si>
-    <t>Frequently dialled number (at least two) – 2 last dialled number</t>
   </si>
   <si>
     <t>Last Recharge Date</t>
@@ -1724,9 +1721,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>No authentication policy statement configured</t>
-  </si>
-  <si>
     <t>Test Data-UAT</t>
   </si>
   <si>
@@ -1929,12 +1923,27 @@
   </si>
   <si>
     <t>FnF Indicator</t>
+  </si>
+  <si>
+    <t>A customer must correctly validate any 3 out of 6 security questions</t>
+  </si>
+  <si>
+    <t>Available Airtel Money Balance</t>
+  </si>
+  <si>
+    <t>Frequently dialled number (at least two) – 2 last dialled number, validated on ECMS:</t>
+  </si>
+  <si>
+    <t>Question1</t>
+  </si>
+  <si>
+    <t>Query</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2176,7 +2185,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2210,9 +2219,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2280,6 +2286,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2894,7 +2909,7 @@
         <xdr:cNvPr id="3" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954E16FB-6A94-A343-90CA-E894AD77BEF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +2957,7 @@
         <xdr:cNvPr id="4" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{679AEED6-D105-6D4C-B147-7BAF9DDA6A85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{679AEED6-D105-6D4C-B147-7BAF9DDA6A85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2985,7 +3000,7 @@
         <xdr:cNvPr id="5" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83922FB9-E51A-A149-B4FF-7427319180C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83922FB9-E51A-A149-B4FF-7427319180C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3028,7 +3043,7 @@
         <xdr:cNvPr id="6" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E89F4F8F-9016-294C-B68D-4116B5D5C6AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E89F4F8F-9016-294C-B68D-4116B5D5C6AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3071,7 +3086,7 @@
         <xdr:cNvPr id="7" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08D8D153-22B3-694C-BB0F-CA48B466CB76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D8D153-22B3-694C-BB0F-CA48B466CB76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3129,7 @@
         <xdr:cNvPr id="8" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{41ED3BB9-A497-C648-9A25-A7AEEEB0F9EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41ED3BB9-A497-C648-9A25-A7AEEEB0F9EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3461,14 +3476,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="47" t="s">
+      <c r="O1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="28" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q1" s="28" t="s">
         <v>530</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -3476,10 +3491,10 @@
         <v>2390495</v>
       </c>
       <c r="B2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D2">
         <v>68527315</v>
@@ -3487,11 +3502,11 @@
       <c r="O2" t="s">
         <v>176</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="47" t="s">
+        <v>531</v>
+      </c>
+      <c r="R2" s="48" t="s">
         <v>532</v>
-      </c>
-      <c r="R2" s="49" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -3499,16 +3514,16 @@
         <v>2394390</v>
       </c>
       <c r="B3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3">
         <v>68527316</v>
       </c>
-      <c r="Q3" s="48" t="s">
-        <v>532</v>
+      <c r="Q3" s="47" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -3516,16 +3531,16 @@
         <v>2388192</v>
       </c>
       <c r="B4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D4">
         <v>68527315</v>
       </c>
-      <c r="Q4" s="48" t="s">
-        <v>532</v>
+      <c r="Q4" s="47" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -3533,16 +3548,16 @@
         <v>2390495</v>
       </c>
       <c r="B5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5">
         <v>68527316</v>
       </c>
-      <c r="Q5" s="48" t="s">
-        <v>532</v>
+      <c r="Q5" s="47" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -3725,89 +3740,109 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
+    <col min="3" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="7" max="8" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>114</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C2" s="24" t="s">
+      <c r="B2" s="56" t="s">
+        <v>626</v>
+      </c>
+      <c r="C2" s="55">
+        <v>3</v>
+      </c>
+      <c r="D2" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="E2" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="55" t="s">
+        <v>627</v>
+      </c>
+      <c r="G2" s="57" t="s">
+        <v>628</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="I2" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="H2" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3843,14 +3878,14 @@
       <c r="G1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="51" t="s">
+        <v>558</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>560</v>
-      </c>
-      <c r="I1" s="52" t="s">
-        <v>561</v>
-      </c>
-      <c r="J1" s="53" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3875,7 +3910,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -3884,10 +3919,10 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="J3" s="12" t="b">
         <v>0</v>
@@ -3895,7 +3930,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -3911,7 +3946,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -3927,7 +3962,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -3943,7 +3978,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3959,7 +3994,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3975,7 +4010,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -3991,7 +4026,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4007,7 +4042,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4023,7 +4058,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4039,7 +4074,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4059,6 +4094,186 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="53" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>596</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>599</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C13" s="54"/>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4076,7 +4291,7 @@
         <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -4110,186 +4325,6 @@
       </c>
       <c r="C4" s="3" t="b">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" style="54" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="54" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="54"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="C6" s="55"/>
-    </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="C13" s="55"/>
-    </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>611</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="C14" s="55"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -4343,128 +4378,128 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="26" t="s">
         <v>166</v>
       </c>
     </row>
@@ -4527,8 +4562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4547,652 +4582,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="K1" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="L1" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>480</v>
+      </c>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>484</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>485</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>523</v>
       </c>
-      <c r="L1" s="29" t="s">
-        <v>534</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>536</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="D10" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>489</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>490</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>491</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>496</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>497</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="G12" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>507</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>479</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>509</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="K14" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>515</v>
+      </c>
+      <c r="G15" s="28" t="s">
+        <v>516</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>518</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>519</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>537</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>539</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>540</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>541</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>542</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="D19" s="44" t="s">
+        <v>544</v>
+      </c>
+      <c r="E19" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>546</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>547</v>
+      </c>
+      <c r="H19" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="I19" s="49" t="s">
+        <v>548</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>549</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>550</v>
+      </c>
+      <c r="L19" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="M19" s="44" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>537</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="29" t="s">
+      <c r="D20" s="44" t="s">
+        <v>554</v>
+      </c>
+      <c r="E20" s="44" t="s">
+        <v>555</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>556</v>
+      </c>
+      <c r="G20" s="44" t="s">
+        <v>557</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>615</v>
+      </c>
+      <c r="C21" s="28" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>617</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="F21" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>485</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>486</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>487</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>488</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>489</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>490</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>491</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>492</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>493</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>494</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>495</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>496</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>497</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>498</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>499</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>500</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>502</v>
-      </c>
-      <c r="H12" s="29" t="s">
-        <v>503</v>
-      </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>504</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>506</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>507</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>508</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>509</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>480</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>510</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>511</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>512</v>
-      </c>
-      <c r="I14" s="45" t="s">
+      <c r="G21" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>619</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>620</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>622</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="C22" s="28" t="s">
+        <v>624</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="E22" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J14" s="45" t="s">
-        <v>513</v>
-      </c>
-      <c r="K14" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>514</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>515</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>516</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>517</v>
-      </c>
-      <c r="H15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>518</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>520</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>521</v>
-      </c>
-      <c r="E16" s="29" t="s">
+      <c r="F22" s="28" t="s">
+        <v>625</v>
+      </c>
+      <c r="G22" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>526</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>527</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>528</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>529</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>538</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>539</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>540</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>541</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>542</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="45" t="s">
-        <v>543</v>
-      </c>
-      <c r="B19" s="46" t="s">
-        <v>544</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>545</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>546</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>547</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>548</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="50" t="s">
-        <v>549</v>
-      </c>
-      <c r="J19" s="50" t="s">
-        <v>550</v>
-      </c>
-      <c r="K19" s="50" t="s">
-        <v>551</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="M19" s="45" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
-        <v>553</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>554</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>556</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>557</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>558</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>616</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>617</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>618</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>619</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>620</v>
-      </c>
-      <c r="H21" s="29" t="s">
-        <v>621</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>622</v>
-      </c>
-      <c r="J21" s="29" t="s">
-        <v>623</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="29"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>624</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>625</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>626</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>528</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>627</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="29"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5328,92 +5363,92 @@
     </row>
     <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q2" s="31" t="s">
+      <c r="O2" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="29" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AB2" s="34">
+      <c r="AB2" s="33">
         <v>0.75</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AD2" s="35">
+      <c r="AD2" s="34">
         <v>0.25</v>
       </c>
       <c r="AE2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF2" s="34">
+      <c r="AF2" s="33">
         <v>0.5</v>
       </c>
-      <c r="AI2" s="38">
+      <c r="AI2" s="37">
         <f>SUM(AB2,AD2,AF2,AH2)</f>
         <v>1.5</v>
       </c>
       <c r="AJ2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AK2" s="33" t="s">
-        <v>479</v>
+      <c r="AK2" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -5456,21 +5491,21 @@
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
@@ -5484,13 +5519,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="30" max="30" width="9.140625" style="36"/>
+    <col min="30" max="30" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
@@ -5581,7 +5616,7 @@
       <c r="AC1" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="AD1" s="37" t="s">
+      <c r="AD1" s="36" t="s">
         <v>84</v>
       </c>
       <c r="AE1" s="6" t="s">
@@ -5611,796 +5646,796 @@
     </row>
     <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>442</v>
-      </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G2" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="J2" s="29" t="s">
         <v>468</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N2" s="30" t="s">
+      <c r="L2" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O2" s="31" t="s">
-        <v>475</v>
-      </c>
-      <c r="P2" s="31" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q2" s="31" t="s">
+      <c r="O2" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q2" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="29" t="s">
         <v>33</v>
       </c>
       <c r="S2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="30" t="s">
+      <c r="T2" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AB2" s="34">
+      <c r="AB2" s="33">
         <v>0.75</v>
       </c>
       <c r="AC2" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AD2" s="35">
+      <c r="AD2" s="34">
         <v>0.25</v>
       </c>
       <c r="AE2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF2" s="34">
+      <c r="AF2" s="33">
         <v>0.5</v>
       </c>
-      <c r="AI2" s="38">
+      <c r="AI2" s="37">
         <f>SUM(AB2,AD2,AF2,AH2)</f>
         <v>1.5</v>
       </c>
       <c r="AJ2" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AK2" s="33" t="s">
-        <v>479</v>
+      <c r="AK2" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="B3" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>445</v>
-      </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G3" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I3" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="J3" s="30" t="s">
+      <c r="I3" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="K3" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N3" s="30" t="s">
+      <c r="L3" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N3" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="30" t="s">
-        <v>476</v>
-      </c>
-      <c r="P3" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q3" s="30" t="s">
+      <c r="O3" s="29" t="s">
+        <v>475</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q3" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="29" t="s">
         <v>33</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA3" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AB3" s="34">
+      <c r="AB3" s="33">
         <v>5</v>
       </c>
       <c r="AC3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AD3" s="38">
+      <c r="AD3" s="37">
         <v>2</v>
       </c>
       <c r="AE3" s="14"/>
-      <c r="AF3" s="34"/>
-      <c r="AI3" s="38">
+      <c r="AF3" s="33"/>
+      <c r="AI3" s="37">
         <f>SUM(AB3,AD3,AF3,AH3)</f>
         <v>7</v>
       </c>
       <c r="AJ3" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="AK3" s="33" t="s">
-        <v>479</v>
+      <c r="AK3" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>447</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>467</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="G4" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="L4" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="J4" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N4" s="30" t="s">
+      <c r="M4" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="O4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="R4" s="30" t="s">
-        <v>477</v>
-      </c>
-      <c r="S4" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="T4" s="30" t="s">
+      <c r="R4" s="29" t="s">
+        <v>476</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="T4" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="AB4" s="32">
+      <c r="AB4" s="31">
         <v>5</v>
       </c>
       <c r="AC4" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AD4" s="38">
+      <c r="AD4" s="37">
         <v>1</v>
       </c>
       <c r="AE4" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF4" s="29">
+      <c r="AF4" s="28">
         <v>2</v>
       </c>
-      <c r="AI4" s="38">
+      <c r="AI4" s="37">
         <f t="shared" ref="AI4:AI10" si="0">SUM(AB4,AD4,AF4,AH4)</f>
         <v>8</v>
       </c>
       <c r="AJ4" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="AK4" s="33" t="s">
-        <v>479</v>
+      <c r="AK4" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G5" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>33</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>473</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N5" s="30" t="s">
+      <c r="K5" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N5" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
       <c r="AA5" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="28">
         <v>5</v>
       </c>
       <c r="AC5" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AD5" s="29">
+      <c r="AD5" s="28">
         <v>1</v>
       </c>
       <c r="AE5" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF5" s="29">
+      <c r="AF5" s="28">
         <v>2</v>
       </c>
-      <c r="AI5" s="38">
+      <c r="AI5" s="37">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AJ5" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AK5" s="33" t="s">
-        <v>479</v>
+      <c r="AK5" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="C6" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>453</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G6" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>33</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="M6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N6" s="30" t="s">
+      <c r="K6" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O6" s="30" t="s">
+      <c r="O6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="P6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q6" s="30" t="s">
+      <c r="P6" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q6" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="R6" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="T6" s="30" t="s">
+      <c r="R6" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="S6" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="T6" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA6" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AB6" s="29">
+      <c r="AB6" s="28">
         <v>12</v>
       </c>
       <c r="AC6" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AD6" s="29">
+      <c r="AD6" s="28">
         <v>2</v>
       </c>
       <c r="AE6" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF6" s="29">
+      <c r="AF6" s="28">
         <v>2</v>
       </c>
-      <c r="AI6" s="38">
+      <c r="AI6" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ6" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AK6" s="33" t="s">
-        <v>479</v>
+      <c r="AK6" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>218</v>
+        <v>448</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>217</v>
       </c>
       <c r="C7" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>455</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G7" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>33</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L7" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="M7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N7" s="30" t="s">
+      <c r="K7" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N7" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O7" s="30" t="s">
+      <c r="O7" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q7" s="30" t="s">
+      <c r="P7" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q7" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="R7" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="S7" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="T7" s="30" t="s">
+      <c r="R7" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="S7" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="T7" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA7" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AB7" s="29">
+      <c r="AB7" s="28">
         <v>12</v>
       </c>
       <c r="AC7" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AD7" s="29">
+      <c r="AD7" s="28">
         <v>2</v>
       </c>
       <c r="AE7" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF7" s="29">
+      <c r="AF7" s="28">
         <v>2</v>
       </c>
-      <c r="AI7" s="38">
+      <c r="AI7" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ7" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AK7" s="33" t="s">
-        <v>479</v>
+      <c r="AK7" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="C8" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>457</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>458</v>
-      </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L8" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N8" s="30" t="s">
+      <c r="K8" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="L8" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N8" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O8" s="30" t="s">
+      <c r="O8" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q8" s="30" t="s">
+      <c r="P8" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q8" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="R8" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="T8" s="30" t="s">
+      <c r="R8" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="S8" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="T8" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA8" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AB8" s="29">
+      <c r="AB8" s="28">
         <v>12</v>
       </c>
       <c r="AC8" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AD8" s="29">
+      <c r="AD8" s="28">
         <v>2</v>
       </c>
       <c r="AE8" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF8" s="29">
+      <c r="AF8" s="28">
         <v>2</v>
       </c>
-      <c r="AI8" s="38">
+      <c r="AI8" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ8" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AK8" s="33" t="s">
-        <v>479</v>
+      <c r="AK8" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>459</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="D9" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="G9" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L9" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="M9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N9" s="30" t="s">
+      <c r="K9" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N9" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O9" s="30" t="s">
+      <c r="O9" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="P9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q9" s="30" t="s">
+      <c r="P9" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q9" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="R9" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="T9" s="30" t="s">
+      <c r="R9" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="S9" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="T9" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA9" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="28">
         <v>12</v>
       </c>
       <c r="AC9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AD9" s="28">
         <v>2</v>
       </c>
       <c r="AE9" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AF9" s="28">
         <v>2</v>
       </c>
-      <c r="AI9" s="38">
+      <c r="AI9" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="AJ9" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="AK9" s="33" t="s">
-        <v>479</v>
+      <c r="AK9" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="B10" s="28" t="s">
+        <v>448</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="D10" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>463</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="29" t="s">
         <v>464</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="G10" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="G10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="29" t="s">
         <v>33</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>470</v>
-      </c>
-      <c r="L10" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="M10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="N10" s="30" t="s">
+      <c r="K10" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="N10" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="O10" s="30" t="s">
+      <c r="O10" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="P10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q10" s="30" t="s">
+      <c r="P10" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q10" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="R10" s="30" t="s">
-        <v>478</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>466</v>
-      </c>
-      <c r="T10" s="30" t="s">
+      <c r="R10" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>465</v>
+      </c>
+      <c r="T10" s="29" t="s">
         <v>160</v>
       </c>
       <c r="AA10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AB10" s="29">
+      <c r="AB10" s="28">
         <v>5</v>
       </c>
       <c r="AC10" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="AD10" s="29">
+      <c r="AD10" s="28">
         <v>1</v>
       </c>
       <c r="AE10" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="AF10" s="29">
+      <c r="AF10" s="28">
         <v>2</v>
       </c>
-      <c r="AI10" s="38">
+      <c r="AI10" s="37">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="AJ10" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="AK10" s="33" t="s">
-        <v>479</v>
+      <c r="AK10" s="32" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -6434,8 +6469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6462,1569 +6497,1569 @@
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="F2" s="29"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="29"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="D4" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="29"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="D5" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="28" t="s">
-        <v>201</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="29"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="D6" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" s="29"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B7" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="D7" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="D8" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C9" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="D9" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="D10" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="41" t="s">
-        <v>216</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="29"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C11" s="40" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="D11" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="D11" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="29"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="C12" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="D12" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F12" s="29"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B13" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="D13" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D13" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="F13" s="29"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B14" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="29"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B15" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="F15" s="29"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B16" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="D17" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B18" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="D18" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E18" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="29"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="C19" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>239</v>
+      </c>
+      <c r="E19" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B20" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="D20" s="39" t="s">
+        <v>242</v>
+      </c>
+      <c r="E20" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F20" s="29"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="D21" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C22" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F22" s="29"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="D23" s="39" t="s">
+        <v>250</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F23" s="29"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="D24" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F24" s="29"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="D25" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="F25" s="29"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="39" t="s">
         <v>259</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="D26" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="F26" s="29"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="C27" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="D27" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="E27" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="F27" s="29"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C28" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="F28" s="29"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C29" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="D29" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="D29" s="39" t="s">
-        <v>267</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F29" s="29"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C30" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="F30" s="29"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="F31" s="29"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B32" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="D32" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F32" s="29"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="D33" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D33" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F33" s="29"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="D34" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>280</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="F34" s="29"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B35" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="D35" s="39" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="40" t="s">
-        <v>283</v>
-      </c>
-      <c r="E35" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="F35" s="29"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="D36" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="F36" s="29"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C37" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="D37" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="E37" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="D37" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="E37" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C38" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="D38" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>292</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="F38" s="29"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B39" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C39" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="D39" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="E39" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D39" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="F39" s="29"/>
+      <c r="F39" s="28"/>
     </row>
     <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B40" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="D40" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="E40" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="D40" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="E40" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="F40" s="29"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="D41" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="39" t="s">
         <v>303</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="D42" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="E42" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="F42" s="29"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B43" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="D43" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="E43" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E43" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="F43" s="29"/>
+      <c r="F43" s="28"/>
     </row>
     <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B44" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>309</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="D44" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E44" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E44" s="13" t="s">
-        <v>311</v>
-      </c>
-      <c r="F44" s="29"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B45" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="D45" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="F45" s="29"/>
+      <c r="F45" s="28"/>
     </row>
     <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B46" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="27" t="s">
         <v>315</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="D46" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="E46" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D46" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="E46" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="F46" s="29"/>
+      <c r="F46" s="28"/>
     </row>
     <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="C47" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="D47" s="27" t="s">
+        <v>318</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D47" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="F47" s="29"/>
+      <c r="F47" s="28"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B48" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F48" s="29"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="C49" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="D49" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="E49" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="D49" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="F49" s="29"/>
+      <c r="F49" s="28"/>
     </row>
     <row r="50" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C50" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="D50" s="27" t="s">
+        <v>326</v>
+      </c>
+      <c r="E50" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D50" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="F50" s="29"/>
+      <c r="F50" s="28"/>
     </row>
     <row r="51" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C51" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="D51" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D51" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="F51" s="29"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B52" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="D52" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E52" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D52" s="28" t="s">
-        <v>333</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F52" s="29"/>
+      <c r="F52" s="28"/>
     </row>
     <row r="53" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C53" s="43" t="s">
         <v>335</v>
       </c>
-      <c r="C53" s="44" t="s">
+      <c r="D53" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="E53" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="D53" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="F53" s="29"/>
+      <c r="F53" s="28"/>
     </row>
     <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B54" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="C54" s="43" t="s">
         <v>338</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="D54" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="E54" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D54" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F54" s="29"/>
+      <c r="F54" s="28"/>
     </row>
     <row r="55" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="C55" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D55" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="F55" s="29"/>
+      <c r="F55" s="28"/>
     </row>
     <row r="56" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B56" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C56" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="D56" s="27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E56" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="D56" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F56" s="29"/>
+      <c r="F56" s="28"/>
     </row>
     <row r="57" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B57" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C57" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="D57" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F57" s="29"/>
+      <c r="F57" s="28"/>
     </row>
     <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B58" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="D58" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="D58" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="F58" s="29"/>
+      <c r="F58" s="28"/>
     </row>
     <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B59" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="D59" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="D59" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="F59" s="29"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="C60" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="D60" s="27" t="s">
+        <v>355</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="D60" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="F60" s="29"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B61" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="D61" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D61" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="F61" s="29"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B62" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="C62" s="27" t="s">
         <v>361</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="D62" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="E62" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="D62" s="28" t="s">
-        <v>362</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="F62" s="29"/>
+      <c r="F62" s="28"/>
     </row>
     <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B63" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>363</v>
+      </c>
+      <c r="C63" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="D63" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="E63" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D63" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="F63" s="29"/>
+      <c r="F63" s="28"/>
     </row>
     <row r="64" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B64" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C64" s="27" t="s">
         <v>367</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="D64" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E64" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="D64" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="F64" s="29"/>
+      <c r="F64" s="28"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B65" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C65" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="D65" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E65" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="F65" s="29"/>
+      <c r="F65" s="28"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="D66" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E66" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D66" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="E66" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="F66" s="29"/>
+      <c r="F66" s="28"/>
     </row>
     <row r="67" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B67" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C67" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="C67" s="28" t="s">
-        <v>377</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>377</v>
+      <c r="D67" s="27" t="s">
+        <v>376</v>
       </c>
       <c r="E67" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F67" s="29"/>
+      <c r="F67" s="28"/>
     </row>
     <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B68" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="C68" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="C68" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>379</v>
+      <c r="D68" s="27" t="s">
+        <v>378</v>
       </c>
       <c r="E68" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F68" s="29"/>
+      <c r="F68" s="28"/>
     </row>
     <row r="69" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A69" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B69" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>379</v>
+      </c>
+      <c r="C69" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="D69" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="E69" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D69" s="28" t="s">
-        <v>381</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="F69" s="29"/>
+      <c r="F69" s="28"/>
     </row>
     <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B70" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="C70" s="27" t="s">
         <v>383</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="D70" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="E70" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="D70" s="28" t="s">
-        <v>384</v>
-      </c>
-      <c r="E70" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="F70" s="29"/>
+      <c r="F70" s="28"/>
     </row>
     <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A71" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B71" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="C71" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="D71" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E71" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D71" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F71" s="29"/>
+      <c r="F71" s="28"/>
     </row>
     <row r="72" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="C72" s="27" t="s">
         <v>389</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="D72" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="E72" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D72" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="E72" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="F72" s="29"/>
+      <c r="F72" s="28"/>
     </row>
     <row r="73" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B73" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="D73" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E73" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="D73" s="40" t="s">
-        <v>393</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F73" s="29"/>
+      <c r="F73" s="28"/>
     </row>
     <row r="74" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C74" s="38" t="s">
         <v>395</v>
       </c>
-      <c r="C74" s="39" t="s">
+      <c r="D74" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="E74" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="D74" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="F74" s="29"/>
+      <c r="F74" s="28"/>
     </row>
     <row r="75" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B75" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="C75" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="C75" s="39" t="s">
+      <c r="D75" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="E75" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="D75" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="E75" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F75" s="29"/>
+      <c r="F75" s="28"/>
     </row>
     <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B76" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C76" s="38" t="s">
         <v>401</v>
       </c>
-      <c r="C76" s="39" t="s">
+      <c r="D76" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="E76" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D76" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="F76" s="29"/>
+      <c r="F76" s="28"/>
     </row>
     <row r="77" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B77" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="C77" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="D77" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="D77" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F77" s="29"/>
+      <c r="F77" s="28"/>
     </row>
     <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="D78" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="E78" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="D78" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="F78" s="29"/>
+      <c r="F78" s="28"/>
     </row>
     <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A79" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="C79" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="D79" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E79" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="E79" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="F79" s="29"/>
+      <c r="F79" s="28"/>
     </row>
     <row r="80" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="D80" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="E80" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D80" s="28" t="s">
-        <v>413</v>
-      </c>
-      <c r="E80" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="F80" s="29"/>
+      <c r="F80" s="28"/>
     </row>
     <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B81" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C81" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="D81" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E81" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D81" s="28" t="s">
-        <v>416</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="F81" s="29"/>
+      <c r="F81" s="28"/>
     </row>
     <row r="82" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B82" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="C82" s="27" t="s">
         <v>418</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="D82" s="27" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="D82" s="28" t="s">
-        <v>419</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="F82" s="29"/>
+      <c r="F82" s="28"/>
     </row>
     <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C83" s="27" t="s">
         <v>421</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="D83" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="E83" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="F83" s="29"/>
+      <c r="F83" s="28"/>
     </row>
     <row r="84" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B84" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C84" s="27" t="s">
         <v>424</v>
       </c>
-      <c r="C84" s="28" t="s">
+      <c r="D84" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="E84" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>425</v>
-      </c>
-      <c r="E84" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F84" s="29"/>
+      <c r="F84" s="28"/>
     </row>
     <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B85" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>426</v>
+      </c>
+      <c r="C85" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="D85" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D85" s="28" t="s">
-        <v>428</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="F85" s="29"/>
+      <c r="F85" s="28"/>
     </row>
     <row r="86" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="C86" s="27" t="s">
         <v>430</v>
       </c>
-      <c r="C86" s="28" t="s">
+      <c r="D86" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="E86" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="D86" s="28" t="s">
-        <v>431</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="F86" s="29"/>
+      <c r="F86" s="28"/>
     </row>
     <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="B87" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>432</v>
+      </c>
+      <c r="C87" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="D87" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="E87" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D87" s="28" t="s">
-        <v>434</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="F87" s="29"/>
+      <c r="F87" s="28"/>
     </row>
     <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B88" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C88" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="D88" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="E88" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="D88" s="28" t="s">
-        <v>437</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="F88" s="29"/>
+      <c r="F88" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E3">
@@ -8302,8 +8337,8 @@
       <c r="D1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="51" t="s">
-        <v>530</v>
+      <c r="E1" s="50" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -8319,8 +8354,8 @@
       <c r="D2">
         <v>68527315</v>
       </c>
-      <c r="E2" s="49" t="s">
-        <v>532</v>
+      <c r="E2" s="48" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -8336,8 +8371,8 @@
       <c r="D3">
         <v>68527315</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>532</v>
+      <c r="E3" s="48" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23127836\IdeaProjects\cs-portal-automation_selenium\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D229165-D302-AE4C-B4E3-6281EACB85E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="34980" windowHeight="9855" firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,19 @@
     <sheet name="FTRTickets-San" sheetId="5" r:id="rId5"/>
     <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId6"/>
     <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId7"/>
-    <sheet name="UserManagement" sheetId="8" r:id="rId8"/>
-    <sheet name="PinnedTags" sheetId="9" r:id="rId9"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId10"/>
-    <sheet name="TemplateManagement" sheetId="11" r:id="rId11"/>
-    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId12"/>
-    <sheet name="Authentication Policy" sheetId="13" r:id="rId13"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId14"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId15"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId16"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId17"/>
+    <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId8"/>
+    <sheet name="UserManagement" sheetId="8" r:id="rId9"/>
+    <sheet name="PinnedTags" sheetId="9" r:id="rId10"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId11"/>
+    <sheet name="TemplateManagement" sheetId="11" r:id="rId12"/>
+    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId13"/>
+    <sheet name="Authentication Policy" sheetId="13" r:id="rId14"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId15"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId16"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId17"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="638">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1938,13 +1940,34 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>API Type</t>
+  </si>
+  <si>
+    <t>Rest API</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtuPQ==</t>
+  </si>
+  <si>
+    <t>OpenAPIValidToken</t>
+  </si>
+  <si>
+    <t>WKMh2WXamTTQtIrnkrC5/l9fCYOHhSa1hOgpKvmn5xZhNHkdTo8g7gpsGKiMXb/w3AjioDsIHk34HzJaReuqYUcHmN0KtpzrDoIHQ0cD0obcoZSykDm5lk55QPMbd20Vn3ZBFMDN4F9BYfxy98fwZXs+aUvM7wF6m2qunUhETMXh6NdTHBuJKtUMH7IE46UYg9h8k7UmWW8KkVjoyNuMii7OQUy6vMr+Y8CA4XGdqvFJ7ro9d9G87RjRl2YU0JG45DWmhKrb+fz7znkk7Q3o5ON5BZMEp+CXZ3cj8FJB4N6EO5ZAt4mEHUqrT/EbzZbjOVRnkrYtjRtudTn2/lJGxLSGoSUIVwxVkOCeJIHQusqWsb5R+Jf85rTmsKp+F//RZ8VzDxhL318YW4mF+fJGFeH29eGKFcqbwSBeAjizIpjxK3O1qcayBK+W7aVcsVU/UAFui5pdaE5loXhJ3rtu</t>
+  </si>
+  <si>
+    <t>OpenApiInvalidToken</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2017,6 +2040,13 @@
       <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2185,7 +2215,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2297,13 +2327,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="1"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="57">
     <dxf>
@@ -3424,16 +3457,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3486,7 +3519,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="17">
       <c r="A2">
         <v>2390495</v>
       </c>
@@ -3509,7 +3542,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="17">
       <c r="A3">
         <v>2394390</v>
       </c>
@@ -3526,7 +3559,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="17">
       <c r="A4">
         <v>2388192</v>
       </c>
@@ -3543,7 +3576,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="17">
       <c r="A5">
         <v>2390495</v>
       </c>
@@ -3566,16 +3599,88 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2">
+        <v>68527315</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3">
+        <v>68527315</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="5" t="s">
         <v>101</v>
       </c>
@@ -3586,7 +3691,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="18" t="s">
         <v>163</v>
       </c>
@@ -3595,7 +3700,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="20" t="s">
         <v>164</v>
       </c>
@@ -3604,7 +3709,7 @@
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="20" t="s">
         <v>166</v>
       </c>
@@ -3613,7 +3718,7 @@
       </c>
       <c r="C4" s="21"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="20" t="s">
         <v>167</v>
       </c>
@@ -3622,7 +3727,7 @@
       </c>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="20" t="s">
         <v>168</v>
       </c>
@@ -3638,20 +3743,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="9" t="s">
         <v>104</v>
       </c>
@@ -3659,7 +3764,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="3" t="s">
         <v>169</v>
       </c>
@@ -3667,7 +3772,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -3675,7 +3780,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
@@ -3683,19 +3788,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="16">
       <c r="A6" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16">
       <c r="A7" s="3" t="s">
         <v>177</v>
       </c>
@@ -3706,17 +3811,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
@@ -3738,23 +3843,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="34.5703125" customWidth="1"/>
-    <col min="3" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="8" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.5" customWidth="1"/>
+    <col min="3" max="5" width="22.1640625" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" customWidth="1"/>
+    <col min="7" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="34">
       <c r="A1" s="10" t="s">
         <v>111</v>
       </c>
@@ -3804,7 +3909,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="56">
       <c r="A2" s="23" t="s">
         <v>178</v>
       </c>
@@ -3846,17 +3951,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="12" t="s">
         <v>124</v>
       </c>
@@ -3888,7 +3993,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="12" t="s">
         <v>131</v>
       </c>
@@ -3908,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
         <v>561</v>
       </c>
@@ -3928,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="12" t="s">
         <v>563</v>
       </c>
@@ -3944,7 +4049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="12" t="s">
         <v>564</v>
       </c>
@@ -3960,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
         <v>565</v>
       </c>
@@ -3976,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
         <v>566</v>
       </c>
@@ -3992,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
         <v>567</v>
       </c>
@@ -4008,7 +4113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
         <v>568</v>
       </c>
@@ -4024,7 +4129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
         <v>569</v>
       </c>
@@ -4040,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
         <v>570</v>
       </c>
@@ -4056,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
         <v>571</v>
       </c>
@@ -4072,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="12" t="s">
         <v>572</v>
       </c>
@@ -4093,23 +4198,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="53" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="53"/>
+    <col min="1" max="1" width="29.83203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="17">
       <c r="A1" s="10" t="s">
         <v>574</v>
       </c>
@@ -4120,7 +4225,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="17">
       <c r="A2" s="10" t="s">
         <v>577</v>
       </c>
@@ -4131,7 +4236,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="51">
       <c r="A3" s="10" t="s">
         <v>182</v>
       </c>
@@ -4142,7 +4247,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="10" t="s">
         <v>582</v>
       </c>
@@ -4153,7 +4258,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="17">
       <c r="A5" s="10" t="s">
         <v>585</v>
       </c>
@@ -4164,7 +4269,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="34">
       <c r="A6" s="10" t="s">
         <v>588</v>
       </c>
@@ -4173,7 +4278,7 @@
       </c>
       <c r="C6" s="54"/>
     </row>
-    <row r="7" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="10" t="s">
         <v>181</v>
       </c>
@@ -4184,7 +4289,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="17">
       <c r="A8" s="10" t="s">
         <v>592</v>
       </c>
@@ -4195,7 +4300,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="17">
       <c r="A9" s="10" t="s">
         <v>595</v>
       </c>
@@ -4206,7 +4311,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="10" t="s">
         <v>598</v>
       </c>
@@ -4217,7 +4322,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="17">
       <c r="A11" s="10" t="s">
         <v>601</v>
       </c>
@@ -4228,7 +4333,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17">
       <c r="A12" s="10" t="s">
         <v>604</v>
       </c>
@@ -4239,7 +4344,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17">
       <c r="A13" s="10" t="s">
         <v>607</v>
       </c>
@@ -4248,7 +4353,7 @@
       </c>
       <c r="C13" s="54"/>
     </row>
-    <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17">
       <c r="A14" s="10" t="s">
         <v>609</v>
       </c>
@@ -4257,7 +4362,7 @@
       </c>
       <c r="C14" s="54"/>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="17">
       <c r="A15" s="10" t="s">
         <v>611</v>
       </c>
@@ -4273,17 +4378,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
@@ -4294,7 +4399,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="14" t="s">
         <v>149</v>
       </c>
@@ -4305,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="14" t="s">
         <v>150</v>
       </c>
@@ -4316,7 +4421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="14" t="s">
         <v>151</v>
       </c>
@@ -4332,17 +4437,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>134</v>
       </c>
@@ -4377,7 +4482,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="28" t="s">
         <v>149</v>
       </c>
@@ -4391,7 +4496,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="28" t="s">
         <v>150</v>
       </c>
@@ -4405,7 +4510,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="28" t="s">
         <v>151</v>
       </c>
@@ -4419,7 +4524,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="16">
       <c r="A5" s="28" t="s">
         <v>152</v>
       </c>
@@ -4433,7 +4538,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="16">
       <c r="A6" s="28" t="s">
         <v>153</v>
       </c>
@@ -4447,7 +4552,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="28" t="s">
         <v>154</v>
       </c>
@@ -4461,7 +4566,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="28" t="s">
         <v>155</v>
       </c>
@@ -4475,7 +4580,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="16">
       <c r="A9" s="28" t="s">
         <v>156</v>
       </c>
@@ -4489,7 +4594,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="16">
       <c r="A10" s="28" t="s">
         <v>157</v>
       </c>
@@ -4509,46 +4614,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="16">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
@@ -4559,29 +4664,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
@@ -4622,7 +4727,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="16">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
@@ -4649,7 +4754,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="28" t="s">
         <v>36</v>
       </c>
@@ -4676,7 +4781,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16">
       <c r="A4" s="28" t="s">
         <v>41</v>
       </c>
@@ -4703,7 +4808,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="28" t="s">
         <v>43</v>
       </c>
@@ -4736,7 +4841,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -4761,7 +4866,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="28" t="s">
         <v>51</v>
       </c>
@@ -4786,7 +4891,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="28" t="s">
         <v>53</v>
       </c>
@@ -4813,7 +4918,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="28" t="s">
         <v>56</v>
       </c>
@@ -4840,7 +4945,7 @@
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="44" t="s">
         <v>484</v>
       </c>
@@ -4867,7 +4972,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="44" t="s">
         <v>489</v>
       </c>
@@ -4894,7 +4999,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13">
       <c r="A12" s="44" t="s">
         <v>495</v>
       </c>
@@ -4925,7 +5030,7 @@
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13">
       <c r="A13" s="28" t="s">
         <v>503</v>
       </c>
@@ -4950,7 +5055,7 @@
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16">
       <c r="A14" s="44" t="s">
         <v>508</v>
       </c>
@@ -4987,7 +5092,7 @@
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="A15" s="44" t="s">
         <v>513</v>
       </c>
@@ -5018,7 +5123,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13">
       <c r="A16" s="44" t="s">
         <v>517</v>
       </c>
@@ -5043,7 +5148,7 @@
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13">
       <c r="A17" s="44" t="s">
         <v>524</v>
       </c>
@@ -5068,7 +5173,7 @@
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13">
       <c r="A18" s="44" t="s">
         <v>537</v>
       </c>
@@ -5095,7 +5200,7 @@
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
     </row>
-    <row r="19" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="32">
       <c r="A19" s="44" t="s">
         <v>542</v>
       </c>
@@ -5136,7 +5241,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13">
       <c r="A20" s="44" t="s">
         <v>552</v>
       </c>
@@ -5165,7 +5270,7 @@
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13">
       <c r="A21" s="28" t="s">
         <v>614</v>
       </c>
@@ -5200,7 +5305,7 @@
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13">
       <c r="A22" s="28" t="s">
         <v>622</v>
       </c>
@@ -5236,16 +5341,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -5361,7 +5466,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="30">
       <c r="A2" s="13" t="s">
         <v>438</v>
       </c>
@@ -5460,16 +5565,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -5489,7 +5594,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="13" t="s">
         <v>188</v>
       </c>
@@ -5516,19 +5621,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL10"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="30" max="30" width="9.140625" style="35"/>
+    <col min="30" max="30" width="9.1640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" ht="16">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -5644,7 +5749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="30">
       <c r="A2" s="13" t="s">
         <v>438</v>
       </c>
@@ -5734,7 +5839,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="45">
       <c r="A3" s="13" t="s">
         <v>438</v>
       </c>
@@ -5820,7 +5925,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4" s="13" t="s">
         <v>438</v>
       </c>
@@ -5910,7 +6015,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="30">
       <c r="A5" s="13" t="s">
         <v>448</v>
       </c>
@@ -5988,7 +6093,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="75">
       <c r="A6" s="13" t="s">
         <v>448</v>
       </c>
@@ -6078,7 +6183,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="45">
       <c r="A7" s="13" t="s">
         <v>448</v>
       </c>
@@ -6168,7 +6273,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="60">
       <c r="A8" s="13" t="s">
         <v>448</v>
       </c>
@@ -6258,7 +6363,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="45">
       <c r="A9" s="13" t="s">
         <v>448</v>
       </c>
@@ -6348,7 +6453,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="45">
       <c r="A10" s="13" t="s">
         <v>448</v>
       </c>
@@ -6466,16 +6571,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
@@ -6495,7 +6600,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45">
       <c r="A2" s="13" t="s">
         <v>188</v>
       </c>
@@ -6513,7 +6618,7 @@
       </c>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="13" t="s">
         <v>188</v>
       </c>
@@ -6531,7 +6636,7 @@
       </c>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="45">
       <c r="A4" s="13" t="s">
         <v>188</v>
       </c>
@@ -6549,7 +6654,7 @@
       </c>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="13" t="s">
         <v>198</v>
       </c>
@@ -6567,7 +6672,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45">
       <c r="A6" s="13" t="s">
         <v>188</v>
       </c>
@@ -6585,7 +6690,7 @@
       </c>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="13" t="s">
         <v>188</v>
       </c>
@@ -6603,7 +6708,7 @@
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="60">
       <c r="A8" s="13" t="s">
         <v>188</v>
       </c>
@@ -6621,7 +6726,7 @@
       </c>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="45">
       <c r="A9" s="13" t="s">
         <v>188</v>
       </c>
@@ -6639,7 +6744,7 @@
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="13" t="s">
         <v>198</v>
       </c>
@@ -6657,7 +6762,7 @@
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45">
       <c r="A11" s="13" t="s">
         <v>188</v>
       </c>
@@ -6675,7 +6780,7 @@
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60">
       <c r="A12" s="13" t="s">
         <v>220</v>
       </c>
@@ -6693,7 +6798,7 @@
       </c>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="13" t="s">
         <v>188</v>
       </c>
@@ -6711,7 +6816,7 @@
       </c>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="13" t="s">
         <v>188</v>
       </c>
@@ -6729,7 +6834,7 @@
       </c>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45">
       <c r="A15" s="13" t="s">
         <v>188</v>
       </c>
@@ -6747,7 +6852,7 @@
       </c>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45">
       <c r="A16" s="13" t="s">
         <v>188</v>
       </c>
@@ -6765,7 +6870,7 @@
       </c>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="60">
       <c r="A17" s="13" t="s">
         <v>188</v>
       </c>
@@ -6783,7 +6888,7 @@
       </c>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="45">
       <c r="A18" s="13" t="s">
         <v>198</v>
       </c>
@@ -6801,7 +6906,7 @@
       </c>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="45">
       <c r="A19" s="13" t="s">
         <v>198</v>
       </c>
@@ -6819,7 +6924,7 @@
       </c>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="45">
       <c r="A20" s="13" t="s">
         <v>188</v>
       </c>
@@ -6837,7 +6942,7 @@
       </c>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="13" t="s">
         <v>188</v>
       </c>
@@ -6855,7 +6960,7 @@
       </c>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="45">
       <c r="A22" s="13" t="s">
         <v>188</v>
       </c>
@@ -6873,7 +6978,7 @@
       </c>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="45">
       <c r="A23" s="13" t="s">
         <v>188</v>
       </c>
@@ -6891,7 +6996,7 @@
       </c>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="45">
       <c r="A24" s="13" t="s">
         <v>198</v>
       </c>
@@ -6909,7 +7014,7 @@
       </c>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="45">
       <c r="A25" s="13" t="s">
         <v>188</v>
       </c>
@@ -6927,7 +7032,7 @@
       </c>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="60">
       <c r="A26" s="13" t="s">
         <v>188</v>
       </c>
@@ -6945,7 +7050,7 @@
       </c>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="45">
       <c r="A27" s="13" t="s">
         <v>188</v>
       </c>
@@ -6963,7 +7068,7 @@
       </c>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="13" t="s">
         <v>188</v>
       </c>
@@ -6981,7 +7086,7 @@
       </c>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="45">
       <c r="A29" s="13" t="s">
         <v>188</v>
       </c>
@@ -6999,7 +7104,7 @@
       </c>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="45">
       <c r="A30" s="13" t="s">
         <v>188</v>
       </c>
@@ -7017,7 +7122,7 @@
       </c>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="45">
       <c r="A31" s="13" t="s">
         <v>188</v>
       </c>
@@ -7035,7 +7140,7 @@
       </c>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="45">
       <c r="A32" s="13" t="s">
         <v>198</v>
       </c>
@@ -7053,7 +7158,7 @@
       </c>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="45">
       <c r="A33" s="13" t="s">
         <v>198</v>
       </c>
@@ -7071,7 +7176,7 @@
       </c>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="45">
       <c r="A34" s="13" t="s">
         <v>188</v>
       </c>
@@ -7089,7 +7194,7 @@
       </c>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="45">
       <c r="A35" s="13" t="s">
         <v>188</v>
       </c>
@@ -7107,7 +7212,7 @@
       </c>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="13" t="s">
         <v>198</v>
       </c>
@@ -7125,7 +7230,7 @@
       </c>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="30">
       <c r="A37" s="13" t="s">
         <v>188</v>
       </c>
@@ -7143,7 +7248,7 @@
       </c>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="45">
       <c r="A38" s="13" t="s">
         <v>188</v>
       </c>
@@ -7161,7 +7266,7 @@
       </c>
       <c r="F38" s="28"/>
     </row>
-    <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="45">
       <c r="A39" s="13" t="s">
         <v>188</v>
       </c>
@@ -7179,7 +7284,7 @@
       </c>
       <c r="F39" s="28"/>
     </row>
-    <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="45">
       <c r="A40" s="13" t="s">
         <v>198</v>
       </c>
@@ -7197,7 +7302,7 @@
       </c>
       <c r="F40" s="28"/>
     </row>
-    <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41" s="13" t="s">
         <v>198</v>
       </c>
@@ -7215,7 +7320,7 @@
       </c>
       <c r="F41" s="28"/>
     </row>
-    <row r="42" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="60">
       <c r="A42" s="13" t="s">
         <v>188</v>
       </c>
@@ -7233,7 +7338,7 @@
       </c>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="60">
       <c r="A43" s="13" t="s">
         <v>188</v>
       </c>
@@ -7251,7 +7356,7 @@
       </c>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="45">
       <c r="A44" s="13" t="s">
         <v>188</v>
       </c>
@@ -7269,7 +7374,7 @@
       </c>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="60">
       <c r="A45" s="13" t="s">
         <v>188</v>
       </c>
@@ -7287,7 +7392,7 @@
       </c>
       <c r="F45" s="28"/>
     </row>
-    <row r="46" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="45">
       <c r="A46" s="13" t="s">
         <v>188</v>
       </c>
@@ -7305,7 +7410,7 @@
       </c>
       <c r="F46" s="28"/>
     </row>
-    <row r="47" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="45">
       <c r="A47" s="13" t="s">
         <v>188</v>
       </c>
@@ -7323,7 +7428,7 @@
       </c>
       <c r="F47" s="28"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="13" t="s">
         <v>188</v>
       </c>
@@ -7341,7 +7446,7 @@
       </c>
       <c r="F48" s="28"/>
     </row>
-    <row r="49" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="30">
       <c r="A49" s="13" t="s">
         <v>188</v>
       </c>
@@ -7359,7 +7464,7 @@
       </c>
       <c r="F49" s="28"/>
     </row>
-    <row r="50" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="45">
       <c r="A50" s="13" t="s">
         <v>188</v>
       </c>
@@ -7377,7 +7482,7 @@
       </c>
       <c r="F50" s="28"/>
     </row>
-    <row r="51" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="45">
       <c r="A51" s="13" t="s">
         <v>188</v>
       </c>
@@ -7395,7 +7500,7 @@
       </c>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="45">
       <c r="A52" s="13" t="s">
         <v>198</v>
       </c>
@@ -7413,7 +7518,7 @@
       </c>
       <c r="F52" s="28"/>
     </row>
-    <row r="53" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="45">
       <c r="A53" s="13" t="s">
         <v>188</v>
       </c>
@@ -7431,7 +7536,7 @@
       </c>
       <c r="F53" s="28"/>
     </row>
-    <row r="54" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="30">
       <c r="A54" s="13" t="s">
         <v>188</v>
       </c>
@@ -7449,7 +7554,7 @@
       </c>
       <c r="F54" s="28"/>
     </row>
-    <row r="55" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="75">
       <c r="A55" s="13" t="s">
         <v>198</v>
       </c>
@@ -7467,7 +7572,7 @@
       </c>
       <c r="F55" s="28"/>
     </row>
-    <row r="56" spans="1:6" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="75">
       <c r="A56" s="13" t="s">
         <v>198</v>
       </c>
@@ -7485,7 +7590,7 @@
       </c>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="60">
       <c r="A57" s="13" t="s">
         <v>198</v>
       </c>
@@ -7503,7 +7608,7 @@
       </c>
       <c r="F57" s="28"/>
     </row>
-    <row r="58" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="45">
       <c r="A58" s="13" t="s">
         <v>188</v>
       </c>
@@ -7521,7 +7626,7 @@
       </c>
       <c r="F58" s="28"/>
     </row>
-    <row r="59" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="45">
       <c r="A59" s="13" t="s">
         <v>198</v>
       </c>
@@ -7539,7 +7644,7 @@
       </c>
       <c r="F59" s="28"/>
     </row>
-    <row r="60" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="45">
       <c r="A60" s="13" t="s">
         <v>198</v>
       </c>
@@ -7557,7 +7662,7 @@
       </c>
       <c r="F60" s="28"/>
     </row>
-    <row r="61" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="45">
       <c r="A61" s="13" t="s">
         <v>198</v>
       </c>
@@ -7575,7 +7680,7 @@
       </c>
       <c r="F61" s="28"/>
     </row>
-    <row r="62" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="45">
       <c r="A62" s="13" t="s">
         <v>198</v>
       </c>
@@ -7593,7 +7698,7 @@
       </c>
       <c r="F62" s="28"/>
     </row>
-    <row r="63" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="45">
       <c r="A63" s="13" t="s">
         <v>198</v>
       </c>
@@ -7611,7 +7716,7 @@
       </c>
       <c r="F63" s="28"/>
     </row>
-    <row r="64" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="45">
       <c r="A64" s="13" t="s">
         <v>198</v>
       </c>
@@ -7629,7 +7734,7 @@
       </c>
       <c r="F64" s="28"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="13" t="s">
         <v>188</v>
       </c>
@@ -7647,7 +7752,7 @@
       </c>
       <c r="F65" s="28"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="13" t="s">
         <v>198</v>
       </c>
@@ -7665,7 +7770,7 @@
       </c>
       <c r="F66" s="28"/>
     </row>
-    <row r="67" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="30">
       <c r="A67" s="13" t="s">
         <v>198</v>
       </c>
@@ -7683,7 +7788,7 @@
       </c>
       <c r="F67" s="28"/>
     </row>
-    <row r="68" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="45">
       <c r="A68" s="13" t="s">
         <v>188</v>
       </c>
@@ -7701,7 +7806,7 @@
       </c>
       <c r="F68" s="28"/>
     </row>
-    <row r="69" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="45">
       <c r="A69" s="13" t="s">
         <v>198</v>
       </c>
@@ -7719,7 +7824,7 @@
       </c>
       <c r="F69" s="28"/>
     </row>
-    <row r="70" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="45">
       <c r="A70" s="13" t="s">
         <v>198</v>
       </c>
@@ -7737,7 +7842,7 @@
       </c>
       <c r="F70" s="28"/>
     </row>
-    <row r="71" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="30">
       <c r="A71" s="13" t="s">
         <v>188</v>
       </c>
@@ -7755,7 +7860,7 @@
       </c>
       <c r="F71" s="28"/>
     </row>
-    <row r="72" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="45">
       <c r="A72" s="13" t="s">
         <v>188</v>
       </c>
@@ -7773,7 +7878,7 @@
       </c>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="60">
       <c r="A73" s="13" t="s">
         <v>198</v>
       </c>
@@ -7791,7 +7896,7 @@
       </c>
       <c r="F73" s="28"/>
     </row>
-    <row r="74" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="45">
       <c r="A74" s="13" t="s">
         <v>198</v>
       </c>
@@ -7809,7 +7914,7 @@
       </c>
       <c r="F74" s="28"/>
     </row>
-    <row r="75" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="60">
       <c r="A75" s="13" t="s">
         <v>198</v>
       </c>
@@ -7827,7 +7932,7 @@
       </c>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="60">
       <c r="A76" s="13" t="s">
         <v>198</v>
       </c>
@@ -7845,7 +7950,7 @@
       </c>
       <c r="F76" s="28"/>
     </row>
-    <row r="77" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="45">
       <c r="A77" s="13" t="s">
         <v>198</v>
       </c>
@@ -7863,7 +7968,7 @@
       </c>
       <c r="F77" s="28"/>
     </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="60">
       <c r="A78" s="13" t="s">
         <v>188</v>
       </c>
@@ -7881,7 +7986,7 @@
       </c>
       <c r="F78" s="28"/>
     </row>
-    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="13" t="s">
         <v>220</v>
       </c>
@@ -7899,7 +8004,7 @@
       </c>
       <c r="F79" s="28"/>
     </row>
-    <row r="80" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="45">
       <c r="A80" s="13" t="s">
         <v>188</v>
       </c>
@@ -7917,7 +8022,7 @@
       </c>
       <c r="F80" s="28"/>
     </row>
-    <row r="81" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="45">
       <c r="A81" s="13" t="s">
         <v>188</v>
       </c>
@@ -7935,7 +8040,7 @@
       </c>
       <c r="F81" s="28"/>
     </row>
-    <row r="82" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="45">
       <c r="A82" s="13" t="s">
         <v>188</v>
       </c>
@@ -7953,7 +8058,7 @@
       </c>
       <c r="F82" s="28"/>
     </row>
-    <row r="83" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="30">
       <c r="A83" s="13" t="s">
         <v>188</v>
       </c>
@@ -7971,7 +8076,7 @@
       </c>
       <c r="F83" s="28"/>
     </row>
-    <row r="84" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="60">
       <c r="A84" s="13" t="s">
         <v>188</v>
       </c>
@@ -7989,7 +8094,7 @@
       </c>
       <c r="F84" s="28"/>
     </row>
-    <row r="85" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="30">
       <c r="A85" s="13" t="s">
         <v>198</v>
       </c>
@@ -8007,7 +8112,7 @@
       </c>
       <c r="F85" s="28"/>
     </row>
-    <row r="86" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="45">
       <c r="A86" s="13" t="s">
         <v>188</v>
       </c>
@@ -8025,7 +8130,7 @@
       </c>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="60">
       <c r="A87" s="13" t="s">
         <v>198</v>
       </c>
@@ -8043,7 +8148,7 @@
       </c>
       <c r="F87" s="28"/>
     </row>
-    <row r="88" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="60">
       <c r="A88" s="13" t="s">
         <v>188</v>
       </c>
@@ -8205,16 +8310,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE95778E-4D4B-FA49-98AB-744674EF4AA5}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17">
+      <c r="A1" s="58" t="s">
+        <v>631</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="409.6">
+      <c r="A3" s="58" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="409.6">
+      <c r="A4" s="58" t="s">
+        <v>636</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>637</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="9" t="s">
         <v>94</v>
       </c>
@@ -8225,7 +8379,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="12" t="s">
         <v>145</v>
       </c>
@@ -8236,7 +8390,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="12" t="s">
         <v>146</v>
       </c>
@@ -8247,7 +8401,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="12" t="s">
         <v>147</v>
       </c>
@@ -8258,7 +8412,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="12" t="s">
         <v>148</v>
       </c>
@@ -8269,7 +8423,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="30">
       <c r="B6" s="15" t="s">
         <v>153</v>
       </c>
@@ -8277,7 +8431,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="45">
       <c r="B7" s="15" t="s">
         <v>154</v>
       </c>
@@ -8285,7 +8439,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="B8" s="13" t="s">
         <v>155</v>
       </c>
@@ -8293,7 +8447,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="B9" s="16" t="s">
         <v>156</v>
       </c>
@@ -8301,7 +8455,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="B10" s="15" t="s">
         <v>157</v>
       </c>
@@ -8312,76 +8466,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="50" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2">
-        <v>68527315</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3">
-        <v>68527315</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>531</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D229165-D302-AE4C-B4E3-6281EACB85E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAAA08-5B9D-4140-9DE5-4636B455DBE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,18 @@
     <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId6"/>
     <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId7"/>
     <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId8"/>
-    <sheet name="UserManagement" sheetId="8" r:id="rId9"/>
-    <sheet name="PinnedTags" sheetId="9" r:id="rId10"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId11"/>
-    <sheet name="TemplateManagement" sheetId="11" r:id="rId12"/>
-    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId13"/>
-    <sheet name="Authentication Policy" sheetId="13" r:id="rId14"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId15"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId16"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId17"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId18"/>
+    <sheet name="OpenAPIClientConfig" sheetId="19" r:id="rId9"/>
+    <sheet name="ClientConfig" sheetId="20" r:id="rId10"/>
+    <sheet name="UserManagement" sheetId="8" r:id="rId11"/>
+    <sheet name="PinnedTags" sheetId="9" r:id="rId12"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId13"/>
+    <sheet name="TemplateManagement" sheetId="11" r:id="rId14"/>
+    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId15"/>
+    <sheet name="Authentication Policy" sheetId="13" r:id="rId16"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId17"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId18"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId19"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="642">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1961,6 +1963,18 @@
   </si>
   <si>
     <t>OpenApiInvalidToken</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>customerMsisdn</t>
+  </si>
+  <si>
+    <t>First Category Level</t>
+  </si>
+  <si>
+    <t>Last Category Level</t>
   </si>
 </sst>
 </file>
@@ -2215,7 +2229,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2330,6 +2344,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3599,6 +3614,158 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3242191-7E8C-CA49-9CDB-84AA4553D144}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="59" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>641</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="59">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59">
+        <v>5</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="B6" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45">
+      <c r="B7" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="B8" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3670,7 +3837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3743,7 +3910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3811,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -3843,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -3951,7 +4118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -4198,7 +4365,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4378,7 +4545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4430,182 +4597,6 @@
       </c>
       <c r="C4" s="3" t="b">
         <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16">
-      <c r="A2" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16">
-      <c r="A4" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16">
-      <c r="A5" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="16">
-      <c r="A6" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16">
-      <c r="A7" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16">
-      <c r="A8" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16">
-      <c r="A9" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16">
-      <c r="A10" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4656,6 +4647,182 @@
     <row r="7" spans="1:1">
       <c r="A7" s="12" t="s">
         <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16">
+      <c r="A2" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16">
+      <c r="A3" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16">
+      <c r="A4" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16">
+      <c r="A5" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16">
+      <c r="A6" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16">
+      <c r="A7" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16">
+      <c r="A8" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16">
+      <c r="A9" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16">
+      <c r="A10" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE95778E-4D4B-FA49-98AB-744674EF4AA5}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
@@ -8337,7 +8504,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="409.6">
+    <row r="3" spans="1:2" ht="187">
       <c r="A3" s="58" t="s">
         <v>634</v>
       </c>
@@ -8345,7 +8512,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="409.6">
+    <row r="4" spans="1:2" ht="187">
       <c r="A4" s="58" t="s">
         <v>636</v>
       </c>
@@ -8359,108 +8526,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DBBD13-CD80-954A-B8F1-502C5B235D94}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30">
-      <c r="A5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
-      <c r="B6" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="45">
-      <c r="B7" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>157</v>
+    <row r="1" spans="1:2" ht="16">
+      <c r="A1" s="59" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="59">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400947/Projects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADAAA08-5B9D-4140-9DE5-4636B455DBE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E157AED-C706-C14F-AF01-51B5BD593F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,17 @@
     <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId8"/>
     <sheet name="OpenAPIClientConfig" sheetId="19" r:id="rId9"/>
     <sheet name="ClientConfig" sheetId="20" r:id="rId10"/>
-    <sheet name="UserManagement" sheetId="8" r:id="rId11"/>
-    <sheet name="PinnedTags" sheetId="9" r:id="rId12"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId13"/>
-    <sheet name="TemplateManagement" sheetId="11" r:id="rId14"/>
-    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId15"/>
-    <sheet name="Authentication Policy" sheetId="13" r:id="rId16"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId17"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId18"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId19"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId20"/>
+    <sheet name="AgentDetails" sheetId="21" r:id="rId11"/>
+    <sheet name="UserManagement" sheetId="8" r:id="rId12"/>
+    <sheet name="PinnedTags" sheetId="9" r:id="rId13"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId14"/>
+    <sheet name="TemplateManagement" sheetId="11" r:id="rId15"/>
+    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId16"/>
+    <sheet name="Authentication Policy" sheetId="13" r:id="rId17"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId18"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId19"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId20"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId21"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="646">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1975,6 +1976,18 @@
   </si>
   <si>
     <t>Last Category Level</t>
+  </si>
+  <si>
+    <t>AgentId</t>
+  </si>
+  <si>
+    <t>AgentAuuid</t>
+  </si>
+  <si>
+    <t>AgentName</t>
+  </si>
+  <si>
+    <t>Ashwani Rao</t>
   </si>
 </sst>
 </file>
@@ -3617,7 +3630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3242191-7E8C-CA49-9CDB-84AA4553D144}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -3656,6 +3669,41 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F32C80-0C48-1A46-BD64-80B3767AE0C1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="59" t="s">
+        <v>642</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>643</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59">
+        <v>13221514</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>645</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3765,7 +3813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3837,7 +3885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3910,7 +3958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3978,7 +4026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4010,7 +4058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -4118,7 +4166,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -4365,7 +4413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4545,65 +4593,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16">
-      <c r="A1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16">
-      <c r="A2" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="16">
-      <c r="A3" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16">
-      <c r="A4" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A7"/>
@@ -4655,6 +4644,65 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16">
+      <c r="A1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>

--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13400017/AirTel Project/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E157AED-C706-C14F-AF01-51B5BD593F82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E019BED-E9B5-5948-9B0B-F2306DCDD66B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="30720" windowHeight="17520" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -3672,7 +3672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F32C80-0C48-1A46-BD64-80B3767AE0C1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -4170,7 +4170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>

--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401002/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E019BED-E9B5-5948-9B0B-F2306DCDD66B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E3F147-55D6-8E4F-9A2C-15B3F39FB0DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="9" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="649">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1988,15 +1988,31 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months</t>
+  </si>
+  <si>
+    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
+  </si>
+  <si>
+    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2074,6 +2090,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2235,129 +2257,141 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4063,7 +4097,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4099,32 +4133,28 @@
       <c r="H1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="L1" s="10" t="s">
+      <c r="J1" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="L1" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="M1" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="N1" s="62" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="56">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" ht="128">
       <c r="A2" s="23" t="s">
         <v>178</v>
       </c>
@@ -4151,6 +4181,9 @@
       </c>
       <c r="I2" s="55" t="s">
         <v>183</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>648</v>
       </c>
       <c r="K2" s="55"/>
       <c r="L2" s="23"/>
@@ -4170,7 +4203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -4415,10 +4448,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
@@ -4587,6 +4620,15 @@
       <c r="C15" s="10" t="s">
         <v>613</v>
       </c>
+    </row>
+    <row r="16" spans="1:3" ht="34">
+      <c r="A16" s="60" t="s">
+        <v>646</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>647</v>
+      </c>
+      <c r="C16" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E3F147-55D6-8E4F-9A2C-15B3F39FB0DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB949C44-35FF-304C-8093-5307D81D44E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="650">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -1518,19 +1518,7 @@
     <t>Loan Details</t>
   </si>
   <si>
-    <t>Total Loan Eligibility</t>
-  </si>
-  <si>
-    <t>Number of Loan Taken</t>
-  </si>
-  <si>
     <t>Total Loan Amount</t>
-  </si>
-  <si>
-    <t>Total Loan Paid</t>
-  </si>
-  <si>
-    <t>Total Current Outstanding</t>
   </si>
   <si>
     <t>Loan History</t>
@@ -1997,13 +1985,28 @@
   </si>
   <si>
     <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
+  </si>
+  <si>
+    <t>Loan ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Loan Eligibility </t>
+  </si>
+  <si>
+    <t>Count Of Events</t>
+  </si>
+  <si>
+    <t>Loan Paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remaining Balance </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2097,6 +2100,13 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2136,7 +2146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2254,6 +2264,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2264,7 +2287,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2392,6 +2415,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3575,10 +3601,10 @@
         <v>14</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17">
@@ -3598,10 +3624,10 @@
         <v>176</v>
       </c>
       <c r="Q2" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="R2" s="48" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="17">
@@ -3618,7 +3644,7 @@
         <v>68527316</v>
       </c>
       <c r="Q3" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="17">
@@ -3635,7 +3661,7 @@
         <v>68527315</v>
       </c>
       <c r="Q4" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="17">
@@ -3652,7 +3678,7 @@
         <v>68527316</v>
       </c>
       <c r="Q5" s="47" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -3677,13 +3703,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="59" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -3714,13 +3740,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16">
       <c r="A1" s="59" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -3729,7 +3755,7 @@
         <v>13221514</v>
       </c>
       <c r="C2" s="59" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -3871,7 +3897,7 @@
         <v>100</v>
       </c>
       <c r="E1" s="50" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16">
@@ -3888,7 +3914,7 @@
         <v>68527315</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16">
@@ -3905,7 +3931,7 @@
         <v>68527315</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -4122,7 +4148,7 @@
         <v>114</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>115</v>
@@ -4159,7 +4185,7 @@
         <v>178</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C2" s="55">
         <v>3</v>
@@ -4171,10 +4197,10 @@
         <v>180</v>
       </c>
       <c r="F2" s="55" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="H2" s="55" t="s">
         <v>182</v>
@@ -4183,7 +4209,7 @@
         <v>183</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="K2" s="55"/>
       <c r="L2" s="23"/>
@@ -4232,13 +4258,13 @@
         <v>130</v>
       </c>
       <c r="H1" s="51" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="I1" s="51" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="J1" s="52" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4263,7 +4289,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="12" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -4272,10 +4298,10 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J3" s="12" t="b">
         <v>0</v>
@@ -4283,7 +4309,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="12" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4299,7 +4325,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="12" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4315,7 +4341,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="12" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -4331,7 +4357,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -4347,7 +4373,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="12" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -4363,7 +4389,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="12" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4379,7 +4405,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="12" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -4395,7 +4421,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="12" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -4411,7 +4437,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4427,7 +4453,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="12" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -4450,7 +4476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4464,24 +4490,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="17">
       <c r="A1" s="10" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17">
       <c r="A2" s="10" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="51">
@@ -4489,40 +4515,40 @@
         <v>182</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17">
       <c r="A4" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17">
       <c r="A5" s="10" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="34">
       <c r="A6" s="10" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="C6" s="54"/>
     </row>
@@ -4531,102 +4557,102 @@
         <v>181</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17">
       <c r="A9" s="10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="34">
       <c r="A10" s="10" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17">
       <c r="A11" s="10" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
       <c r="A12" s="10" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17">
       <c r="A13" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="C13" s="54"/>
     </row>
     <row r="14" spans="1:3" ht="17">
       <c r="A14" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="C14" s="54"/>
     </row>
     <row r="15" spans="1:3" ht="17">
       <c r="A15" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
       <c r="A16" s="60" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="C16" s="61"/>
     </row>
@@ -4703,7 +4729,7 @@
         <v>110</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16">
@@ -4924,8 +4950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4936,7 +4962,7 @@
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
     <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.6640625" customWidth="1"/>
@@ -4972,16 +4998,16 @@
         <v>30</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="16">
@@ -4989,7 +5015,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>32</v>
@@ -5028,7 +5054,7 @@
         <v>40</v>
       </c>
       <c r="F3" s="28" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G3" s="28"/>
       <c r="H3" s="28"/>
@@ -5052,7 +5078,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F4" s="28" t="s">
         <v>35</v>
@@ -5210,7 +5236,7 @@
         <v>485</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>486</v>
@@ -5233,22 +5259,24 @@
       <c r="A11" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="64" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" s="65" t="s">
+        <v>646</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>647</v>
+      </c>
+      <c r="E11" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>492</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>493</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>494</v>
-      </c>
-      <c r="G11" s="28"/>
+      <c r="F11" s="65" t="s">
+        <v>648</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>649</v>
+      </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -5258,28 +5286,28 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="44" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>493</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>494</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="F12" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="G12" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="H12" s="28" t="s">
         <v>498</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>499</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>500</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>501</v>
-      </c>
-      <c r="H12" s="28" t="s">
-        <v>502</v>
       </c>
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
@@ -5289,19 +5317,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>500</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>501</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>502</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>503</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>504</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>506</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>507</v>
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -5314,7 +5342,7 @@
     </row>
     <row r="14" spans="1:13" ht="16">
       <c r="A14" s="44" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>479</v>
@@ -5326,22 +5354,22 @@
         <v>42</v>
       </c>
       <c r="E14" s="45" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F14" s="44" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="I14" s="44" t="s">
         <v>61</v>
       </c>
       <c r="J14" s="44" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K14" s="44" t="s">
         <v>48</v>
@@ -5351,7 +5379,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="44" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>37</v>
@@ -5363,13 +5391,13 @@
         <v>40</v>
       </c>
       <c r="E15" s="44" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H15" s="28" t="s">
         <v>42</v>
@@ -5382,16 +5410,16 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="44" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>124</v>
@@ -5407,19 +5435,19 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="44" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="E17" s="44" t="s">
         <v>524</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>525</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>526</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>528</v>
       </c>
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
@@ -5432,19 +5460,19 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>535</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>537</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>538</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>539</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>540</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>541</v>
       </c>
       <c r="F18" s="28" t="s">
         <v>124</v>
@@ -5459,66 +5487,66 @@
     </row>
     <row r="19" spans="1:13" ht="32">
       <c r="A19" s="44" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="44" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F19" s="44" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G19" s="44" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>34</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="J19" s="49" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="K19" s="49" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L19" s="44" t="s">
         <v>35</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="44" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C20" s="28" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G20" s="44" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
@@ -5529,34 +5557,34 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="28" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F21" s="28" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="J21" s="28" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
@@ -5564,22 +5592,22 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="28" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="28" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="G22" s="28" t="s">
         <v>124</v>
@@ -5593,6 +5621,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6862,7 +6891,7 @@
         <v>188</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C2" s="27" t="s">
         <v>190</v>
@@ -8582,32 +8611,32 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17">
       <c r="A1" s="58" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
       <c r="A2" s="58"/>
       <c r="B2" s="58" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="187">
       <c r="A3" s="58" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B3" s="58" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="187">
       <c r="A4" s="58" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B4" s="58" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -8630,10 +8659,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16">
       <c r="A1" s="59" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16">
@@ -8645,7 +8674,7 @@
         <v>767240995</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -1,51 +1,252 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB949C44-35FF-304C-8093-5307D81D44E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D75A22-9C21-544B-970F-C9C5A77D8EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17520" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="2340" windowWidth="30720" windowHeight="17520" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
     <sheet name="Priority" sheetId="2" r:id="rId2"/>
     <sheet name="Headers" sheetId="3" r:id="rId3"/>
     <sheet name="NFTRTickets-San" sheetId="4" r:id="rId4"/>
-    <sheet name="FTRTickets-San" sheetId="5" r:id="rId5"/>
-    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId6"/>
-    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId7"/>
-    <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId8"/>
-    <sheet name="OpenAPIClientConfig" sheetId="19" r:id="rId9"/>
-    <sheet name="ClientConfig" sheetId="20" r:id="rId10"/>
-    <sheet name="AgentDetails" sheetId="21" r:id="rId11"/>
-    <sheet name="UserManagement" sheetId="8" r:id="rId12"/>
-    <sheet name="PinnedTags" sheetId="9" r:id="rId13"/>
-    <sheet name="Ticket State" sheetId="10" r:id="rId14"/>
-    <sheet name="TemplateManagement" sheetId="11" r:id="rId15"/>
-    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId16"/>
-    <sheet name="Authentication Policy" sheetId="13" r:id="rId17"/>
-    <sheet name="Action Tagging" sheetId="14" r:id="rId18"/>
-    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId19"/>
-    <sheet name="Transfer To Queue" sheetId="16" r:id="rId20"/>
-    <sheet name="State Queue Mapping" sheetId="15" r:id="rId21"/>
+    <sheet name="Assignment Rule" sheetId="22" r:id="rId5"/>
+    <sheet name="SLA Configuration" sheetId="23" r:id="rId6"/>
+    <sheet name="FTRTickets-San" sheetId="5" r:id="rId7"/>
+    <sheet name="NFTRTickets-Reg" sheetId="6" r:id="rId8"/>
+    <sheet name="FTRTickets-Reg" sheetId="7" r:id="rId9"/>
+    <sheet name="OpenAPILoginSheet" sheetId="18" r:id="rId10"/>
+    <sheet name="OpenAPIClientConfig" sheetId="19" r:id="rId11"/>
+    <sheet name="ClientConfig" sheetId="20" r:id="rId12"/>
+    <sheet name="AgentDetails" sheetId="21" r:id="rId13"/>
+    <sheet name="UserManagement" sheetId="8" r:id="rId14"/>
+    <sheet name="PinnedTags" sheetId="9" r:id="rId15"/>
+    <sheet name="Ticket State" sheetId="10" r:id="rId16"/>
+    <sheet name="TemplateManagement" sheetId="11" r:id="rId17"/>
+    <sheet name="Ticket Transfer Rules" sheetId="12" r:id="rId18"/>
+    <sheet name="Authentication Policy" sheetId="13" r:id="rId19"/>
+    <sheet name="Action Tagging" sheetId="14" r:id="rId20"/>
+    <sheet name="QuestionAnswerKey" sheetId="17" r:id="rId21"/>
+    <sheet name="Transfer To Queue" sheetId="16" r:id="rId22"/>
+    <sheet name="State Queue Mapping" sheetId="15" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D4FA6839-6854-5643-BF32-36716703E08F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2A564E1C-CB4F-474D-8C5F-1B6F98FA5F96}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Rahul Gupta</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1331D294-DB6C-4C4D-9A52-3C471112097D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer VIP or not. For which customer ticket is created that customer VIP status will store.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{1DB3E437-55B4-8845-95B3-EC782CBD6AC1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent the customer Line type(Prepaid/postpaid/hybrid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{0FE18D18-9A56-794A-B4A2-774C1B334784}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Rahul Gupta:
+This column represent the customer Type</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EFFD76FC-D4A6-3345-ACB2-881D70707ED8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer service category</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{EB17CBA3-3BC2-9146-A48F-B053A6D53D91}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Rahul Gupta:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This column represent customer segment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="670">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2000,15 +2201,82 @@
   </si>
   <si>
     <t xml:space="preserve">Remaining Balance </t>
+  </si>
+  <si>
+    <t>Service request</t>
+  </si>
+  <si>
+    <t>CS Automation NFTR</t>
+  </si>
+  <si>
+    <t>Ignore this category code</t>
+  </si>
+  <si>
+    <t>Do not close this ticket</t>
+  </si>
+  <si>
+    <t>Auto01</t>
+  </si>
+  <si>
+    <t>CS Test Automation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>customerVip</t>
+  </si>
+  <si>
+    <t>lineType</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>serviceCategory</t>
+  </si>
+  <si>
+    <t>customerSegment</t>
+  </si>
+  <si>
+    <t>customerSubSegment</t>
+  </si>
+  <si>
+    <t>interactionChannel</t>
+  </si>
+  <si>
+    <t>Default SLA</t>
+  </si>
+  <si>
+    <t>Attribute name</t>
+  </si>
+  <si>
+    <t>Attribute value</t>
+  </si>
+  <si>
+    <t>Workgroup Name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Rule Priority</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2106,6 +2374,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333399"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2280,144 +2567,148 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3552,9 +3843,9 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16">
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3607,7 +3898,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="17">
+    <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2390495</v>
       </c>
@@ -3630,7 +3921,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="17">
+    <row r="3" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2394390</v>
       </c>
@@ -3647,7 +3938,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="17">
+    <row r="4" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2388192</v>
       </c>
@@ -3664,7 +3955,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17">
+    <row r="5" spans="1:18" ht="17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2390495</v>
       </c>
@@ -3687,6 +3978,93 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE95778E-4D4B-FA49-98AB-744674EF4AA5}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="58" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+      <c r="A3" s="58" t="s">
+        <v>630</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="187" x14ac:dyDescent="0.2">
+      <c r="A4" s="58" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>633</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DBBD13-CD80-954A-B8F1-502C5B235D94}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="59">
+        <v>767240995</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>635</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3242191-7E8C-CA49-9CDB-84AA4553D144}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3694,14 +4072,14 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>636</v>
       </c>
@@ -3712,7 +4090,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="59">
         <v>1</v>
       </c>
@@ -3728,7 +4106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F32C80-0C48-1A46-BD64-80B3767AE0C1}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3736,9 +4114,9 @@
       <selection activeCell="C2" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="59" t="s">
         <v>638</v>
       </c>
@@ -3749,7 +4127,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="59"/>
       <c r="B2" s="59">
         <v>13221514</v>
@@ -3763,7 +4141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -3771,9 +4149,9 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>94</v>
       </c>
@@ -3784,7 +4162,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>145</v>
       </c>
@@ -3795,7 +4173,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>146</v>
       </c>
@@ -3806,7 +4184,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>147</v>
       </c>
@@ -3817,7 +4195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>148</v>
       </c>
@@ -3828,7 +4206,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
         <v>153</v>
       </c>
@@ -3836,7 +4214,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45">
+    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>154</v>
       </c>
@@ -3844,7 +4222,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
         <v>155</v>
       </c>
@@ -3852,7 +4230,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
         <v>156</v>
       </c>
@@ -3860,7 +4238,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
         <v>157</v>
       </c>
@@ -3873,7 +4251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -3881,9 +4259,9 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -3900,7 +4278,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>158</v>
       </c>
@@ -3917,7 +4295,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>159</v>
       </c>
@@ -3945,7 +4323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -3953,9 +4331,9 @@
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>101</v>
       </c>
@@ -3966,7 +4344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>163</v>
       </c>
@@ -3975,7 +4353,7 @@
       </c>
       <c r="C2" s="19"/>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>164</v>
       </c>
@@ -3984,7 +4362,7 @@
       </c>
       <c r="C3" s="21"/>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>166</v>
       </c>
@@ -3993,7 +4371,7 @@
       </c>
       <c r="C4" s="21"/>
     </row>
-    <row r="5" spans="1:3" ht="16">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>167</v>
       </c>
@@ -4002,7 +4380,7 @@
       </c>
       <c r="C5" s="21"/>
     </row>
-    <row r="6" spans="1:3" ht="16">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>168</v>
       </c>
@@ -4018,7 +4396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -4026,12 +4404,12 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>104</v>
       </c>
@@ -4039,7 +4417,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>169</v>
       </c>
@@ -4047,7 +4425,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>171</v>
       </c>
@@ -4055,7 +4433,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>173</v>
       </c>
@@ -4063,19 +4441,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" ht="16">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="16">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>177</v>
       </c>
@@ -4086,7 +4464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -4094,9 +4472,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>106</v>
       </c>
@@ -4118,7 +4496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -4126,7 +4504,7 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.5" customWidth="1"/>
     <col min="3" max="5" width="22.1640625" customWidth="1"/>
@@ -4134,7 +4512,7 @@
     <col min="7" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="34">
+    <row r="1" spans="1:17" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>111</v>
       </c>
@@ -4180,7 +4558,7 @@
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="128">
+    <row r="2" spans="1:17" ht="128" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>178</v>
       </c>
@@ -4222,442 +4600,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="16">
-      <c r="A1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="51" t="s">
-        <v>554</v>
-      </c>
-      <c r="I1" s="51" t="s">
-        <v>555</v>
-      </c>
-      <c r="J1" s="52" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="J3" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="12" t="s">
-        <v>561</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="12" t="s">
-        <v>567</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="12" t="s">
-        <v>568</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="29.83203125" style="53" customWidth="1"/>
-    <col min="2" max="2" width="28.1640625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17">
-      <c r="A1" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17">
-      <c r="A2" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="51">
-      <c r="A3" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17">
-      <c r="A4" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
-      <c r="A5" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="34">
-      <c r="A6" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="C6" s="54"/>
-    </row>
-    <row r="7" spans="1:3" ht="17">
-      <c r="A7" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>586</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17">
-      <c r="A8" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>589</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17">
-      <c r="A9" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34">
-      <c r="A10" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17">
-      <c r="A11" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>598</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17">
-      <c r="A12" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17">
-      <c r="A13" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="C13" s="54"/>
-    </row>
-    <row r="14" spans="1:3" ht="17">
-      <c r="A14" s="10" t="s">
-        <v>605</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="C14" s="54"/>
-    </row>
-    <row r="15" spans="1:3" ht="17">
-      <c r="A15" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="34">
-      <c r="A16" s="60" t="s">
-        <v>642</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>643</v>
-      </c>
-      <c r="C16" s="61"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4669,39 +4611,39 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16">
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>21</v>
       </c>
@@ -4712,6 +4654,442 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>554</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="J1" s="52" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="J3" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="51.1640625" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="54"/>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>588</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>589</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>600</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="C13" s="54"/>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="C14" s="54"/>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
+        <v>642</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>643</v>
+      </c>
+      <c r="C16" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4719,9 +5097,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>109</v>
       </c>
@@ -4732,7 +5110,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>149</v>
       </c>
@@ -4743,7 +5121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>150</v>
       </c>
@@ -4754,7 +5132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>151</v>
       </c>
@@ -4770,7 +5148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -4778,9 +5156,9 @@
       <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>134</v>
       </c>
@@ -4815,7 +5193,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>149</v>
       </c>
@@ -4829,7 +5207,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>150</v>
       </c>
@@ -4843,7 +5221,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>151</v>
       </c>
@@ -4857,7 +5235,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>152</v>
       </c>
@@ -4871,7 +5249,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>153</v>
       </c>
@@ -4885,7 +5263,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="16">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>154</v>
       </c>
@@ -4899,7 +5277,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="16">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>155</v>
       </c>
@@ -4913,7 +5291,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="16">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>156</v>
       </c>
@@ -4927,7 +5305,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
         <v>157</v>
       </c>
@@ -4950,11 +5328,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
@@ -4969,7 +5347,7 @@
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="28" t="s">
         <v>22</v>
       </c>
@@ -5010,7 +5388,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16">
+    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
@@ -5037,7 +5415,7 @@
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="28" t="s">
         <v>36</v>
       </c>
@@ -5064,7 +5442,7 @@
       <c r="L3" s="28"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" spans="1:13" ht="16">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>41</v>
       </c>
@@ -5091,7 +5469,7 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>43</v>
       </c>
@@ -5124,7 +5502,7 @@
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
         <v>49</v>
       </c>
@@ -5149,7 +5527,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
         <v>51</v>
       </c>
@@ -5174,7 +5552,7 @@
       <c r="L7" s="28"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
         <v>53</v>
       </c>
@@ -5201,7 +5579,7 @@
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
         <v>56</v>
       </c>
@@ -5228,7 +5606,7 @@
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="44" t="s">
         <v>484</v>
       </c>
@@ -5255,7 +5633,7 @@
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="44" t="s">
         <v>489</v>
       </c>
@@ -5284,7 +5662,7 @@
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="44" t="s">
         <v>491</v>
       </c>
@@ -5315,7 +5693,7 @@
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>499</v>
       </c>
@@ -5340,7 +5718,7 @@
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
     </row>
-    <row r="14" spans="1:13" ht="16">
+    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="44" t="s">
         <v>504</v>
       </c>
@@ -5377,7 +5755,7 @@
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="44" t="s">
         <v>509</v>
       </c>
@@ -5408,7 +5786,7 @@
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="44" t="s">
         <v>513</v>
       </c>
@@ -5433,7 +5811,7 @@
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="44" t="s">
         <v>520</v>
       </c>
@@ -5458,7 +5836,7 @@
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="44" t="s">
         <v>533</v>
       </c>
@@ -5485,7 +5863,7 @@
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
     </row>
-    <row r="19" spans="1:13" ht="32">
+    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="44" t="s">
         <v>538</v>
       </c>
@@ -5526,7 +5904,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="44" t="s">
         <v>548</v>
       </c>
@@ -5555,7 +5933,7 @@
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>610</v>
       </c>
@@ -5590,7 +5968,7 @@
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>618</v>
       </c>
@@ -5631,12 +6009,12 @@
   <dimension ref="A1:AL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -5752,94 +6130,56 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="30">
-      <c r="A2" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>440</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>464</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>467</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>468</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>469</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>472</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>465</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="O2" s="30" t="s">
-        <v>474</v>
-      </c>
-      <c r="P2" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q2" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>160</v>
-      </c>
+    <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="67" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="67" t="s">
+        <v>652</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>653</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>654</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="29"/>
       <c r="AA2" s="14" t="s">
-        <v>150</v>
+        <v>655</v>
       </c>
       <c r="AB2" s="33">
-        <v>0.75</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD2" s="34">
-        <v>0.25</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="AF2" s="33">
-        <v>0.5</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="33"/>
       <c r="AI2" s="37">
         <f>SUM(AB2,AD2,AF2,AH2)</f>
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>150</v>
+        <v>655</v>
       </c>
       <c r="AK2" s="32" t="s">
-        <v>478</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5851,6 +6191,172 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC07F8-991E-3142-9557-D41CCCDEDEE2}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="70" t="s">
+        <v>655</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>655</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D99D728-CAC6-E541-A668-34FAAB4C39AD}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>659</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>660</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>661</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>662</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>663</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
+        <v>654</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="70" t="s">
+        <v>655</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="R2" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -5858,9 +6364,9 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -5880,7 +6386,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>188</v>
       </c>
@@ -5906,7 +6412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL10"/>
   <sheetViews>
@@ -5914,12 +6420,12 @@
       <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="30" max="30" width="9.1640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="16">
+    <row r="1" spans="1:38" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>62</v>
       </c>
@@ -6035,7 +6541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="30">
+    <row r="2" spans="1:38" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>438</v>
       </c>
@@ -6125,7 +6631,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="45">
+    <row r="3" spans="1:38" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>438</v>
       </c>
@@ -6211,7 +6717,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>438</v>
       </c>
@@ -6301,7 +6807,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="30">
+    <row r="5" spans="1:38" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>448</v>
       </c>
@@ -6379,7 +6885,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="75">
+    <row r="6" spans="1:38" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>448</v>
       </c>
@@ -6469,7 +6975,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="45">
+    <row r="7" spans="1:38" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>448</v>
       </c>
@@ -6559,7 +7065,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="60">
+    <row r="8" spans="1:38" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>448</v>
       </c>
@@ -6649,7 +7155,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="45">
+    <row r="9" spans="1:38" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>448</v>
       </c>
@@ -6739,7 +7245,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="45">
+    <row r="10" spans="1:38" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>448</v>
       </c>
@@ -6856,7 +7362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
@@ -6864,9 +7370,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>62</v>
       </c>
@@ -6886,7 +7392,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>188</v>
       </c>
@@ -6904,7 +7410,7 @@
       </c>
       <c r="F2" s="28"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>188</v>
       </c>
@@ -6922,7 +7428,7 @@
       </c>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="45">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>188</v>
       </c>
@@ -6940,7 +7446,7 @@
       </c>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>198</v>
       </c>
@@ -6958,7 +7464,7 @@
       </c>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" ht="45">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>188</v>
       </c>
@@ -6976,7 +7482,7 @@
       </c>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" ht="30">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>188</v>
       </c>
@@ -6994,7 +7500,7 @@
       </c>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="60">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>188</v>
       </c>
@@ -7012,7 +7518,7 @@
       </c>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" ht="45">
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>188</v>
       </c>
@@ -7030,7 +7536,7 @@
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>198</v>
       </c>
@@ -7048,7 +7554,7 @@
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" ht="45">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>188</v>
       </c>
@@ -7066,7 +7572,7 @@
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" ht="60">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>220</v>
       </c>
@@ -7084,7 +7590,7 @@
       </c>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>188</v>
       </c>
@@ -7102,7 +7608,7 @@
       </c>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" ht="30">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>188</v>
       </c>
@@ -7120,7 +7626,7 @@
       </c>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" ht="45">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>188</v>
       </c>
@@ -7138,7 +7644,7 @@
       </c>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>188</v>
       </c>
@@ -7156,7 +7662,7 @@
       </c>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:6" ht="60">
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>188</v>
       </c>
@@ -7174,7 +7680,7 @@
       </c>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:6" ht="45">
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>198</v>
       </c>
@@ -7192,7 +7698,7 @@
       </c>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:6" ht="45">
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>198</v>
       </c>
@@ -7210,7 +7716,7 @@
       </c>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:6" ht="45">
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>188</v>
       </c>
@@ -7228,7 +7734,7 @@
       </c>
       <c r="F20" s="28"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>188</v>
       </c>
@@ -7246,7 +7752,7 @@
       </c>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:6" ht="45">
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>188</v>
       </c>
@@ -7264,7 +7770,7 @@
       </c>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:6" ht="45">
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>188</v>
       </c>
@@ -7282,7 +7788,7 @@
       </c>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6" ht="45">
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>198</v>
       </c>
@@ -7300,7 +7806,7 @@
       </c>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:6" ht="45">
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>188</v>
       </c>
@@ -7318,7 +7824,7 @@
       </c>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" ht="60">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>188</v>
       </c>
@@ -7336,7 +7842,7 @@
       </c>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:6" ht="45">
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>188</v>
       </c>
@@ -7354,7 +7860,7 @@
       </c>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>188</v>
       </c>
@@ -7372,7 +7878,7 @@
       </c>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:6" ht="45">
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>188</v>
       </c>
@@ -7390,7 +7896,7 @@
       </c>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="1:6" ht="45">
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>188</v>
       </c>
@@ -7408,7 +7914,7 @@
       </c>
       <c r="F30" s="28"/>
     </row>
-    <row r="31" spans="1:6" ht="45">
+    <row r="31" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>188</v>
       </c>
@@ -7426,7 +7932,7 @@
       </c>
       <c r="F31" s="28"/>
     </row>
-    <row r="32" spans="1:6" ht="45">
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>198</v>
       </c>
@@ -7444,7 +7950,7 @@
       </c>
       <c r="F32" s="28"/>
     </row>
-    <row r="33" spans="1:6" ht="45">
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>198</v>
       </c>
@@ -7462,7 +7968,7 @@
       </c>
       <c r="F33" s="28"/>
     </row>
-    <row r="34" spans="1:6" ht="45">
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>188</v>
       </c>
@@ -7480,7 +7986,7 @@
       </c>
       <c r="F34" s="28"/>
     </row>
-    <row r="35" spans="1:6" ht="45">
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>188</v>
       </c>
@@ -7498,7 +8004,7 @@
       </c>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>198</v>
       </c>
@@ -7516,7 +8022,7 @@
       </c>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" spans="1:6" ht="30">
+    <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>188</v>
       </c>
@@ -7534,7 +8040,7 @@
       </c>
       <c r="F37" s="28"/>
     </row>
-    <row r="38" spans="1:6" ht="45">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>188</v>
       </c>
@@ -7552,7 +8058,7 @@
       </c>
       <c r="F38" s="28"/>
     </row>
-    <row r="39" spans="1:6" ht="45">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>188</v>
       </c>
@@ -7570,7 +8076,7 @@
       </c>
       <c r="F39" s="28"/>
     </row>
-    <row r="40" spans="1:6" ht="45">
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>198</v>
       </c>
@@ -7588,7 +8094,7 @@
       </c>
       <c r="F40" s="28"/>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>198</v>
       </c>
@@ -7606,7 +8112,7 @@
       </c>
       <c r="F41" s="28"/>
     </row>
-    <row r="42" spans="1:6" ht="60">
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>188</v>
       </c>
@@ -7624,7 +8130,7 @@
       </c>
       <c r="F42" s="28"/>
     </row>
-    <row r="43" spans="1:6" ht="60">
+    <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>188</v>
       </c>
@@ -7642,7 +8148,7 @@
       </c>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="1:6" ht="45">
+    <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>188</v>
       </c>
@@ -7660,7 +8166,7 @@
       </c>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" spans="1:6" ht="60">
+    <row r="45" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>188</v>
       </c>
@@ -7678,7 +8184,7 @@
       </c>
       <c r="F45" s="28"/>
     </row>
-    <row r="46" spans="1:6" ht="45">
+    <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>188</v>
       </c>
@@ -7696,7 +8202,7 @@
       </c>
       <c r="F46" s="28"/>
     </row>
-    <row r="47" spans="1:6" ht="45">
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>188</v>
       </c>
@@ -7714,7 +8220,7 @@
       </c>
       <c r="F47" s="28"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>188</v>
       </c>
@@ -7732,7 +8238,7 @@
       </c>
       <c r="F48" s="28"/>
     </row>
-    <row r="49" spans="1:6" ht="30">
+    <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>188</v>
       </c>
@@ -7750,7 +8256,7 @@
       </c>
       <c r="F49" s="28"/>
     </row>
-    <row r="50" spans="1:6" ht="45">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>188</v>
       </c>
@@ -7768,7 +8274,7 @@
       </c>
       <c r="F50" s="28"/>
     </row>
-    <row r="51" spans="1:6" ht="45">
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>188</v>
       </c>
@@ -7786,7 +8292,7 @@
       </c>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" spans="1:6" ht="45">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>198</v>
       </c>
@@ -7804,7 +8310,7 @@
       </c>
       <c r="F52" s="28"/>
     </row>
-    <row r="53" spans="1:6" ht="45">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>188</v>
       </c>
@@ -7822,7 +8328,7 @@
       </c>
       <c r="F53" s="28"/>
     </row>
-    <row r="54" spans="1:6" ht="30">
+    <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>188</v>
       </c>
@@ -7840,7 +8346,7 @@
       </c>
       <c r="F54" s="28"/>
     </row>
-    <row r="55" spans="1:6" ht="75">
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>198</v>
       </c>
@@ -7858,7 +8364,7 @@
       </c>
       <c r="F55" s="28"/>
     </row>
-    <row r="56" spans="1:6" ht="75">
+    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.2">
       <c r="A56" s="13" t="s">
         <v>198</v>
       </c>
@@ -7876,7 +8382,7 @@
       </c>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" spans="1:6" ht="60">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>198</v>
       </c>
@@ -7894,7 +8400,7 @@
       </c>
       <c r="F57" s="28"/>
     </row>
-    <row r="58" spans="1:6" ht="45">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
         <v>188</v>
       </c>
@@ -7912,7 +8418,7 @@
       </c>
       <c r="F58" s="28"/>
     </row>
-    <row r="59" spans="1:6" ht="45">
+    <row r="59" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
         <v>198</v>
       </c>
@@ -7930,7 +8436,7 @@
       </c>
       <c r="F59" s="28"/>
     </row>
-    <row r="60" spans="1:6" ht="45">
+    <row r="60" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A60" s="13" t="s">
         <v>198</v>
       </c>
@@ -7948,7 +8454,7 @@
       </c>
       <c r="F60" s="28"/>
     </row>
-    <row r="61" spans="1:6" ht="45">
+    <row r="61" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A61" s="13" t="s">
         <v>198</v>
       </c>
@@ -7966,7 +8472,7 @@
       </c>
       <c r="F61" s="28"/>
     </row>
-    <row r="62" spans="1:6" ht="45">
+    <row r="62" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
         <v>198</v>
       </c>
@@ -7984,7 +8490,7 @@
       </c>
       <c r="F62" s="28"/>
     </row>
-    <row r="63" spans="1:6" ht="45">
+    <row r="63" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A63" s="13" t="s">
         <v>198</v>
       </c>
@@ -8002,7 +8508,7 @@
       </c>
       <c r="F63" s="28"/>
     </row>
-    <row r="64" spans="1:6" ht="45">
+    <row r="64" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
         <v>198</v>
       </c>
@@ -8020,7 +8526,7 @@
       </c>
       <c r="F64" s="28"/>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
         <v>188</v>
       </c>
@@ -8038,7 +8544,7 @@
       </c>
       <c r="F65" s="28"/>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
         <v>198</v>
       </c>
@@ -8056,7 +8562,7 @@
       </c>
       <c r="F66" s="28"/>
     </row>
-    <row r="67" spans="1:6" ht="30">
+    <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
         <v>198</v>
       </c>
@@ -8074,7 +8580,7 @@
       </c>
       <c r="F67" s="28"/>
     </row>
-    <row r="68" spans="1:6" ht="45">
+    <row r="68" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
         <v>188</v>
       </c>
@@ -8092,7 +8598,7 @@
       </c>
       <c r="F68" s="28"/>
     </row>
-    <row r="69" spans="1:6" ht="45">
+    <row r="69" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
         <v>198</v>
       </c>
@@ -8110,7 +8616,7 @@
       </c>
       <c r="F69" s="28"/>
     </row>
-    <row r="70" spans="1:6" ht="45">
+    <row r="70" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A70" s="13" t="s">
         <v>198</v>
       </c>
@@ -8128,7 +8634,7 @@
       </c>
       <c r="F70" s="28"/>
     </row>
-    <row r="71" spans="1:6" ht="30">
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A71" s="13" t="s">
         <v>188</v>
       </c>
@@ -8146,7 +8652,7 @@
       </c>
       <c r="F71" s="28"/>
     </row>
-    <row r="72" spans="1:6" ht="45">
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A72" s="13" t="s">
         <v>188</v>
       </c>
@@ -8164,7 +8670,7 @@
       </c>
       <c r="F72" s="28"/>
     </row>
-    <row r="73" spans="1:6" ht="60">
+    <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A73" s="13" t="s">
         <v>198</v>
       </c>
@@ -8182,7 +8688,7 @@
       </c>
       <c r="F73" s="28"/>
     </row>
-    <row r="74" spans="1:6" ht="45">
+    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>198</v>
       </c>
@@ -8200,7 +8706,7 @@
       </c>
       <c r="F74" s="28"/>
     </row>
-    <row r="75" spans="1:6" ht="60">
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
         <v>198</v>
       </c>
@@ -8218,7 +8724,7 @@
       </c>
       <c r="F75" s="28"/>
     </row>
-    <row r="76" spans="1:6" ht="60">
+    <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>198</v>
       </c>
@@ -8236,7 +8742,7 @@
       </c>
       <c r="F76" s="28"/>
     </row>
-    <row r="77" spans="1:6" ht="45">
+    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>198</v>
       </c>
@@ -8254,7 +8760,7 @@
       </c>
       <c r="F77" s="28"/>
     </row>
-    <row r="78" spans="1:6" ht="60">
+    <row r="78" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>188</v>
       </c>
@@ -8272,7 +8778,7 @@
       </c>
       <c r="F78" s="28"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>220</v>
       </c>
@@ -8290,7 +8796,7 @@
       </c>
       <c r="F79" s="28"/>
     </row>
-    <row r="80" spans="1:6" ht="45">
+    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>188</v>
       </c>
@@ -8308,7 +8814,7 @@
       </c>
       <c r="F80" s="28"/>
     </row>
-    <row r="81" spans="1:6" ht="45">
+    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>188</v>
       </c>
@@ -8326,7 +8832,7 @@
       </c>
       <c r="F81" s="28"/>
     </row>
-    <row r="82" spans="1:6" ht="45">
+    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>188</v>
       </c>
@@ -8344,7 +8850,7 @@
       </c>
       <c r="F82" s="28"/>
     </row>
-    <row r="83" spans="1:6" ht="30">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>188</v>
       </c>
@@ -8362,7 +8868,7 @@
       </c>
       <c r="F83" s="28"/>
     </row>
-    <row r="84" spans="1:6" ht="60">
+    <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>188</v>
       </c>
@@ -8380,7 +8886,7 @@
       </c>
       <c r="F84" s="28"/>
     </row>
-    <row r="85" spans="1:6" ht="30">
+    <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>198</v>
       </c>
@@ -8398,7 +8904,7 @@
       </c>
       <c r="F85" s="28"/>
     </row>
-    <row r="86" spans="1:6" ht="45">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>188</v>
       </c>
@@ -8416,7 +8922,7 @@
       </c>
       <c r="F86" s="28"/>
     </row>
-    <row r="87" spans="1:6" ht="60">
+    <row r="87" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>198</v>
       </c>
@@ -8434,7 +8940,7 @@
       </c>
       <c r="F87" s="28"/>
     </row>
-    <row r="88" spans="1:6" ht="60">
+    <row r="88" spans="1:6" ht="60" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>188</v>
       </c>
@@ -8593,91 +9099,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE95778E-4D4B-FA49-98AB-744674EF4AA5}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17">
-      <c r="A1" s="58" t="s">
-        <v>627</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="187">
-      <c r="A3" s="58" t="s">
-        <v>630</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="187">
-      <c r="A4" s="58" t="s">
-        <v>632</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>633</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DBBD13-CD80-954A-B8F1-502C5B235D94}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16">
-      <c r="A1" s="59" t="s">
-        <v>522</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
-    </row>
-    <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="59">
-        <v>767240995</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>635</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/resources/excels/TD.xlsx
+++ b/resources/excels/TD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13221514/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a13401405/IdeaProjects/cs-portal-automation_selenium/resources/excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D75A22-9C21-544B-970F-C9C5A77D8EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CB3626-C2AF-CD47-AEA1-733EC822D1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2340" windowWidth="30720" windowHeight="17520" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="2340" windowWidth="30720" windowHeight="17520" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="667">
   <si>
     <t>loginAuuid</t>
   </si>
@@ -2177,15 +2177,6 @@
   </si>
   <si>
     <t>Ashwani Rao</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months</t>
-  </si>
-  <si>
-    <t>LAST_DATA_BUNDLE_RECHARGE_AMOUNT</t>
-  </si>
-  <si>
-    <t>Last Data Bundle Recharge Amount in 2 months (Mandatory)</t>
   </si>
   <si>
     <t>Loan ID</t>
@@ -2267,7 +2258,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2361,12 +2352,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2574,7 +2559,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2690,23 +2675,17 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
@@ -4537,28 +4516,28 @@
       <c r="H1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="60" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="60" t="s">
         <v>123</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
     </row>
-    <row r="2" spans="1:17" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="56" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>178</v>
       </c>
@@ -4586,9 +4565,7 @@
       <c r="I2" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="J2" s="63" t="s">
-        <v>644</v>
-      </c>
+      <c r="J2" s="61"/>
       <c r="K2" s="55"/>
       <c r="L2" s="23"/>
       <c r="M2" s="24"/>
@@ -4902,10 +4879,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5074,15 +5051,6 @@
       <c r="C15" s="10" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
-        <v>642</v>
-      </c>
-      <c r="B16" s="60" t="s">
-        <v>643</v>
-      </c>
-      <c r="C16" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5637,23 +5605,23 @@
       <c r="A11" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="62" t="s">
+        <v>642</v>
+      </c>
+      <c r="C11" s="63" t="s">
+        <v>643</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>644</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>490</v>
+      </c>
+      <c r="F11" s="63" t="s">
         <v>645</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="G11" s="28" t="s">
         <v>646</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>647</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>490</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>648</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>649</v>
       </c>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
@@ -6131,20 +6099,20 @@
       </c>
     </row>
     <row r="2" spans="1:38" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="65" t="s">
+        <v>647</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>648</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>649</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>650</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="E2" s="66" t="s">
         <v>651</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>652</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>653</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>654</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29"/>
@@ -6162,7 +6130,7 @@
       <c r="S2" s="12"/>
       <c r="T2" s="29"/>
       <c r="AA2" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AB2" s="33">
         <v>0.6</v>
@@ -6176,7 +6144,7 @@
         <v>0.6</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AK2" s="32" t="s">
         <v>18</v>
@@ -6194,7 +6162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CC07F8-991E-3142-9557-D41CCCDEDEE2}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -6202,16 +6170,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>90</v>
@@ -6220,28 +6188,28 @@
         <v>91</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>654</v>
+      <c r="A2" s="68" t="s">
+        <v>651</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="70" t="s">
-        <v>655</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>655</v>
-      </c>
-      <c r="F2" s="70" t="s">
+      <c r="D2" s="68" t="s">
+        <v>652</v>
+      </c>
+      <c r="E2" s="68" t="s">
+        <v>652</v>
+      </c>
+      <c r="F2" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="68" t="s">
         <v>163</v>
       </c>
       <c r="H2" s="3">
@@ -6266,28 +6234,28 @@
   <sheetData>
     <row r="1" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>656</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="28" t="s">
         <v>657</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="28" t="s">
         <v>658</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>659</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>660</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>661</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>662</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>663</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>81</v>
@@ -6313,16 +6281,16 @@
       <c r="P1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="67" t="s">
         <v>89</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>654</v>
+      <c r="A2" s="68" t="s">
+        <v>651</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -6331,8 +6299,8 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="70" t="s">
-        <v>655</v>
+      <c r="I2" s="68" t="s">
+        <v>652</v>
       </c>
       <c r="J2" s="5">
         <v>0.6</v>
